--- a/MTO.xlsx
+++ b/MTO.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>22.38</v>
+        <v>22.380000000000003</v>
       </c>
       <c r="B3" t="str">
         <v>M.L</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>68.11000000000001</v>
+        <v>68.11</v>
       </c>
       <c r="B4" t="str">
         <v>M.L</v>
@@ -479,12 +479,12 @@
         <v>PIPE, SEAMLESS, BE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E6">
-        <v>16.664999999999996</v>
+        <v>16.665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>4.140000000000001</v>
+        <v>4.14</v>
       </c>
       <c r="B7" t="str">
         <v>M.L</v>
@@ -513,12 +513,12 @@
         <v>PIPE, SEAMLESS, BE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E8">
-        <v>2534.6177999999995</v>
+        <v>2534.6178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>11.519999999999998</v>
+        <v>11.520000000000005</v>
       </c>
       <c r="B9" t="str">
         <v>M.L</v>
@@ -530,12 +530,12 @@
         <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E9">
-        <v>62.66880000000001</v>
+        <v>62.668800000000026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>34.639999999999986</v>
+        <v>34.64</v>
       </c>
       <c r="B10" t="str">
         <v>M.L</v>
@@ -547,7 +547,7 @@
         <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E10">
-        <v>391.0856</v>
+        <v>391.08559999999994</v>
       </c>
     </row>
     <row r="11">
@@ -569,7 +569,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>310.61999999999995</v>
+        <v>310.6199999999999</v>
       </c>
       <c r="B12" t="str">
         <v>M.L</v>
@@ -581,12 +581,12 @@
         <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E12">
-        <v>8778.121200000001</v>
+        <v>8778.1212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>32.74</v>
+        <v>32.74000000000001</v>
       </c>
       <c r="B13" t="str">
         <v>M.L</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>184.01999999999992</v>
+        <v>184.01999999999995</v>
       </c>
       <c r="B14" t="str">
         <v>M.L</v>
@@ -615,7 +615,7 @@
         <v>PIPE, SEAMLESS, BE, SCH 80, B36.10, A106 GR B</v>
       </c>
       <c r="E14">
-        <v>4107.326399999999</v>
+        <v>4107.3264</v>
       </c>
     </row>
     <row r="15">
@@ -637,7 +637,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>48.80000000000004</v>
+        <v>48.80000000000005</v>
       </c>
       <c r="B16" t="str">
         <v>M.L</v>
@@ -649,12 +649,12 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E16">
-        <v>95.1599999999999</v>
+        <v>95.16000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>369.1799999999997</v>
+        <v>369.1799999999998</v>
       </c>
       <c r="B17" t="str">
         <v>M.L</v>
@@ -666,12 +666,12 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E17">
-        <v>1070.6219999999994</v>
+        <v>1070.621999999998</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>170.35999999999993</v>
+        <v>170.35999999999999</v>
       </c>
       <c r="B18" t="str">
         <v>M.L</v>
@@ -683,12 +683,12 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E18">
-        <v>722.3263999999998</v>
+        <v>722.3264000000003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>169.24999999999994</v>
+        <v>169.25</v>
       </c>
       <c r="B19" t="str">
         <v>M.L</v>
@@ -700,7 +700,7 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E19">
-        <v>1227.0625000000007</v>
+        <v>1227.0625000000002</v>
       </c>
     </row>
     <row r="20">
@@ -717,7 +717,7 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E20">
-        <v>20.664599999999997</v>
+        <v>20.6646</v>
       </c>
     </row>
     <row r="21">
@@ -1198,36 +1198,36 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" t="str">
         <v>U.N</v>
       </c>
       <c r="C49" t="str">
-        <v>1"x1/2"x1"</v>
+        <v>1"x1/2"</v>
       </c>
       <c r="D49" t="str">
         <v>TEE RED, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E49">
-        <v>2.68</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="str">
         <v>U.N</v>
       </c>
       <c r="C50" t="str">
-        <v>3"x2"x3"</v>
+        <v>1"x1/2"x1"</v>
       </c>
       <c r="D50" t="str">
-        <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
+        <v>TEE RED, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E50">
-        <v>22</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="51">
@@ -1238,81 +1238,81 @@
         <v>U.N</v>
       </c>
       <c r="C51" t="str">
-        <v>4"x3"</v>
+        <v>3"x2"</v>
       </c>
       <c r="D51" t="str">
         <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E51">
-        <v>31.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52" t="str">
         <v>U.N</v>
       </c>
       <c r="C52" t="str">
-        <v>6"x3"x6"</v>
+        <v>3"x2"x3"</v>
       </c>
       <c r="D52" t="str">
-        <v>TEE RED, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E52">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B53" t="str">
         <v>U.N</v>
       </c>
       <c r="C53" t="str">
-        <v>4"x2"</v>
+        <v>4"x3"</v>
       </c>
       <c r="D53" t="str">
-        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E53">
-        <v>56</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54" t="str">
         <v>U.N</v>
       </c>
       <c r="C54" t="str">
-        <v>1"x1/2"</v>
+        <v>6"x3"x6"</v>
       </c>
       <c r="D54" t="str">
-        <v>TEE RED, SW, 3000#, B16.11, A105</v>
+        <v>TEE RED, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E54">
-        <v>4.770000000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B55" t="str">
         <v>U.N</v>
       </c>
       <c r="C55" t="str">
-        <v>1 1/2"x3/4"</v>
+        <v>4"x2"</v>
       </c>
       <c r="D55" t="str">
-        <v>TEE RED, SW, 3000#, B16.11, A105</v>
+        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E55">
-        <v>18.900000000000002</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -1323,13 +1323,13 @@
         <v>U.N</v>
       </c>
       <c r="C56" t="str">
-        <v>1/2"</v>
+        <v>4"x3"</v>
       </c>
       <c r="D56" t="str">
-        <v>TEE, 3000#, NPT, B16.11, A-105</v>
+        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E56">
-        <v>0.78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -1340,132 +1340,132 @@
         <v>U.N</v>
       </c>
       <c r="C57" t="str">
-        <v>1"</v>
+        <v>4"x3"x4"</v>
       </c>
       <c r="D57" t="str">
-        <v>TEE, 3000#, NPT, B16.11, A-105</v>
+        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E57">
-        <v>1.34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="str">
         <v>U.N</v>
       </c>
       <c r="C58" t="str">
-        <v>4"</v>
+        <v>1 1/2"x1"</v>
       </c>
       <c r="D58" t="str">
-        <v>TEE, BE, SCH 160, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E58">
-        <v>31.06</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B59" t="str">
         <v>U.N</v>
       </c>
       <c r="C59" t="str">
-        <v>4"</v>
+        <v>1 1/2"x1/2"</v>
       </c>
       <c r="D59" t="str">
-        <v>TEE, BE, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E59">
-        <v>118.15999999999998</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60" t="str">
         <v>U.N</v>
       </c>
       <c r="C60" t="str">
-        <v>2"</v>
+        <v>1 1/2"x1/2"x1 1/2"</v>
       </c>
       <c r="D60" t="str">
-        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E60">
-        <v>9.399999999999999</v>
+        <v>4.050000000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B61" t="str">
         <v>U.N</v>
       </c>
       <c r="C61" t="str">
-        <v>3"</v>
+        <v>1 1/2"x3/4"</v>
       </c>
       <c r="D61" t="str">
-        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E61">
-        <v>22.919999999999998</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B62" t="str">
         <v>U.N</v>
       </c>
       <c r="C62" t="str">
-        <v>6"</v>
+        <v>1 1/2"x3/4"x1 1/2"</v>
       </c>
       <c r="D62" t="str">
-        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E62">
-        <v>49.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B63" t="str">
         <v>U.N</v>
       </c>
       <c r="C63" t="str">
-        <v>1/2"</v>
+        <v>1"x1/2"</v>
       </c>
       <c r="D63" t="str">
-        <v>TEE, SW, 3000 #, B16.11, A105</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>2.6500000000000004</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B64" t="str">
         <v>U.N</v>
       </c>
       <c r="C64" t="str">
-        <v>3/4"</v>
+        <v>1"x1/2"x1"</v>
       </c>
       <c r="D64" t="str">
-        <v>TEE, SW, 3000 #, B16.11, A105</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="65">
@@ -1476,421 +1476,421 @@
         <v>U.N</v>
       </c>
       <c r="C65" t="str">
-        <v>1 1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D65" t="str">
-        <v>TEE, SW, 3000 #, B16.11, A105</v>
+        <v>TEE, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B66" t="str">
         <v>U.N</v>
       </c>
       <c r="C66" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D66" t="str">
-        <v>TEE, SW, 3000#, B16.11, A105</v>
+        <v>TEE, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B67" t="str">
         <v>U.N</v>
       </c>
       <c r="C67" t="str">
-        <v>1 1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D67" t="str">
-        <v>TEE, SW, 3000#, B16.11, A105</v>
+        <v>TEE, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B68" t="str">
         <v>U.N</v>
       </c>
       <c r="C68" t="str">
-        <v>1"x1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D68" t="str">
-        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
+        <v>TEE, BE, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E68">
-        <v>1.68</v>
+        <v>118.15999999999998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B69" t="str">
         <v>U.N</v>
       </c>
       <c r="C69" t="str">
-        <v>1 1/2"x1"</v>
+        <v>2"</v>
       </c>
       <c r="D69" t="str">
-        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
+        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E69">
-        <v>1.2</v>
+        <v>9.399999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B70" t="str">
         <v>U.N</v>
       </c>
       <c r="C70" t="str">
-        <v>2"x1"</v>
+        <v>3"</v>
       </c>
       <c r="D70" t="str">
-        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
+        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E70">
-        <v>6.72</v>
+        <v>22.919999999999998</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" t="str">
         <v>U.N</v>
       </c>
       <c r="C71" t="str">
-        <v>3"x2 1/2"</v>
+        <v>6"</v>
       </c>
       <c r="D71" t="str">
-        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
+        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E71">
-        <v>3.78</v>
+        <v>49.44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B72" t="str">
         <v>U.N</v>
       </c>
       <c r="C72" t="str">
-        <v>3"x2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D72" t="str">
-        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE, SW, 3000 #, B16.11, A105</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" t="str">
         <v>U.N</v>
       </c>
       <c r="C73" t="str">
-        <v>4"x3"</v>
+        <v>1/2"</v>
       </c>
       <c r="D73" t="str">
-        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE, SW, 3000 #, B16.11, A105</v>
       </c>
       <c r="E73">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B74" t="str">
         <v>U.N</v>
       </c>
       <c r="C74" t="str">
-        <v>3"x2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D74" t="str">
-        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE, SW, 3000 #, B16.11, A105</v>
       </c>
       <c r="E74">
-        <v>2.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B75" t="str">
         <v>U.N</v>
       </c>
       <c r="C75" t="str">
-        <v>4"x3"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D75" t="str">
-        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E75">
-        <v>9.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B76" t="str">
         <v>U.N</v>
       </c>
       <c r="C76" t="str">
-        <v>6"x4"</v>
+        <v>1"</v>
       </c>
       <c r="D76" t="str">
-        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E76">
-        <v>23.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" t="str">
         <v>U.N</v>
       </c>
       <c r="C77" t="str">
-        <v>8"x4"</v>
+        <v>1 1/2"x1"</v>
       </c>
       <c r="D77" t="str">
-        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
       </c>
       <c r="E77">
-        <v>9.86</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B78" t="str">
         <v>U.N</v>
       </c>
       <c r="C78" t="str">
-        <v>3"x1 1/2"</v>
+        <v>1"x1/2"</v>
       </c>
       <c r="D78" t="str">
-        <v>RED ECC, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B79" t="str">
         <v>U.N</v>
       </c>
       <c r="C79" t="str">
-        <v>6"x3"</v>
+        <v>2"x1 1/2"</v>
       </c>
       <c r="D79" t="str">
-        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
+        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B80" t="str">
         <v>U.N</v>
       </c>
       <c r="C80" t="str">
-        <v>6"x1/2"</v>
+        <v>2"x1"</v>
       </c>
       <c r="D80" t="str">
-        <v>LATROLET, SW, 3000#</v>
+        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B81" t="str">
         <v>U.N</v>
       </c>
       <c r="C81" t="str">
-        <v>2"x1"</v>
+        <v>3"x2 1/2"</v>
       </c>
       <c r="D81" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E81">
-        <v>1.95</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B82" t="str">
         <v>U.N</v>
       </c>
       <c r="C82" t="str">
-        <v>3"x1/2"</v>
+        <v>3"x2"</v>
       </c>
       <c r="D82" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E82">
-        <v>0.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B83" t="str">
         <v>U.N</v>
       </c>
       <c r="C83" t="str">
-        <v>4"x1/2"</v>
+        <v>4"x3"</v>
       </c>
       <c r="D83" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E83">
-        <v>1.3199999999999998</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B84" t="str">
         <v>U.N</v>
       </c>
       <c r="C84" t="str">
-        <v>6"x1"</v>
+        <v>3"x2"</v>
       </c>
       <c r="D84" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E84">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B85" t="str">
         <v>U.N</v>
       </c>
       <c r="C85" t="str">
-        <v>4"x1/2"</v>
+        <v>4"x2"</v>
       </c>
       <c r="D85" t="str">
-        <v>SOCKOLET, #6000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E85">
-        <v>1.3599999999999999</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" t="str">
         <v>U.N</v>
       </c>
       <c r="C86" t="str">
-        <v>2"x1/2"</v>
+        <v>4"x3"</v>
       </c>
       <c r="D86" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E86">
-        <v>0.44</v>
+        <v>6.8100000000000005</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B87" t="str">
         <v>U.N</v>
       </c>
       <c r="C87" t="str">
-        <v>3"x3/4"</v>
+        <v>6"x4"</v>
       </c>
       <c r="D87" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E87">
-        <v>0.8099999999999999</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B88" t="str">
         <v>U.N</v>
       </c>
       <c r="C88" t="str">
-        <v>4"x1/2"</v>
+        <v>8"x4"</v>
       </c>
       <c r="D88" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E88">
-        <v>6.330000000000004</v>
+        <v>9.86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B89" t="str">
         <v>U.N</v>
       </c>
       <c r="C89" t="str">
-        <v>6"x1"</v>
+        <v>3"x1 1/2"</v>
       </c>
       <c r="D89" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>RED ECC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E89">
-        <v>0.9500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1901,47 +1901,47 @@
         <v>U.N</v>
       </c>
       <c r="C90" t="str">
-        <v>6"x1/2"</v>
+        <v>6"x1"</v>
       </c>
       <c r="D90" t="str">
-        <v>THREADOLET, 3000#, NPT, MSS-SP-97, A-105</v>
+        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
       </c>
       <c r="E90">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" t="str">
         <v>U.N</v>
       </c>
       <c r="C91" t="str">
-        <v>3"x1/2"</v>
+        <v>6"x3"</v>
       </c>
       <c r="D91" t="str">
-        <v>THREADOLET, 6000#, MSS SP-97</v>
+        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
       </c>
       <c r="E91">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B92" t="str">
         <v>U.N</v>
       </c>
       <c r="C92" t="str">
-        <v>4"x3/4"</v>
+        <v>6"x4"</v>
       </c>
       <c r="D92" t="str">
-        <v>THREADOLET, 6000#, MSS SP-97</v>
+        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
       </c>
       <c r="E92">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1952,443 +1952,443 @@
         <v>U.N</v>
       </c>
       <c r="C93" t="str">
-        <v>8"x3"</v>
+        <v>6"x1/2"</v>
       </c>
       <c r="D93" t="str">
-        <v>WELDOLET, BW, 80, MSS-SP-97, A105</v>
+        <v>LATROLET, SW, 3000#</v>
       </c>
       <c r="E93">
-        <v>1.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B94" t="str">
         <v>U.N</v>
       </c>
       <c r="C94" t="str">
-        <v>4"x2"</v>
+        <v>2"x1"</v>
       </c>
       <c r="D94" t="str">
-        <v>WELDOLET, BW, SCH 40, MSS-SP-97, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E94">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B95" t="str">
         <v>U.N</v>
       </c>
       <c r="C95" t="str">
-        <v>1/2"</v>
+        <v>2"x1/2"</v>
       </c>
       <c r="D95" t="str">
-        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E95">
-        <v>5.520000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B96" t="str">
         <v>U.N</v>
       </c>
       <c r="C96" t="str">
-        <v>1"</v>
+        <v>3"x1/2"</v>
       </c>
       <c r="D96" t="str">
-        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E96">
-        <v>3.68</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B97" t="str">
         <v>U.N</v>
       </c>
       <c r="C97" t="str">
-        <v>1/2"</v>
+        <v>4"x1"</v>
       </c>
       <c r="D97" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E97">
-        <v>2.45</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B98" t="str">
         <v>U.N</v>
       </c>
       <c r="C98" t="str">
-        <v>3/4"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D98" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E98">
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B99" t="str">
         <v>U.N</v>
       </c>
       <c r="C99" t="str">
-        <v>1"</v>
+        <v>6"x1"</v>
       </c>
       <c r="D99" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E99">
-        <v>11.7</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B100" t="str">
         <v>U.N</v>
       </c>
       <c r="C100" t="str">
-        <v>1 1/2"</v>
+        <v>4"x1 1/2"</v>
       </c>
       <c r="D100" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #6000, B16.11, A105</v>
       </c>
       <c r="E100">
-        <v>9.6</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B101" t="str">
         <v>U.N</v>
       </c>
       <c r="C101" t="str">
-        <v>2"</v>
+        <v>4"x1"</v>
       </c>
       <c r="D101" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #6000, B16.11, A105</v>
       </c>
       <c r="E101">
-        <v>9</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B102" t="str">
         <v>U.N</v>
       </c>
       <c r="C102" t="str">
-        <v>1/2"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D102" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #6000, B16.11, A105</v>
       </c>
       <c r="E102">
-        <v>6.999999999999997</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B103" t="str">
         <v>U.N</v>
       </c>
       <c r="C103" t="str">
-        <v>3/4"</v>
+        <v>2"x1/2"</v>
       </c>
       <c r="D103" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E103">
-        <v>5.499999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B104" t="str">
         <v>U.N</v>
       </c>
       <c r="C104" t="str">
-        <v>1"</v>
+        <v>3"x1/2"</v>
       </c>
       <c r="D104" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E104">
-        <v>0.78</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" t="str">
         <v>U.N</v>
       </c>
       <c r="C105" t="str">
-        <v>1 1/2"</v>
+        <v>3"x3/4"</v>
       </c>
       <c r="D105" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E105">
-        <v>6.4</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B106" t="str">
         <v>U.N</v>
       </c>
       <c r="C106" t="str">
-        <v>1/2"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D106" t="str">
-        <v>UNION, SW, 6000#, MSS-SP-83, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E106">
-        <v>0.35</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B107" t="str">
         <v>U.N</v>
       </c>
       <c r="C107" t="str">
-        <v>4"</v>
+        <v>4"x2"</v>
       </c>
       <c r="D107" t="str">
-        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E107">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B108" t="str">
         <v>U.N</v>
       </c>
       <c r="C108" t="str">
-        <v>6"</v>
+        <v>4"x3/4"</v>
       </c>
       <c r="D108" t="str">
-        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E108">
-        <v>3.6</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B109" t="str">
         <v>U.N</v>
       </c>
       <c r="C109" t="str">
-        <v>4"</v>
+        <v>6"x1"</v>
       </c>
       <c r="D109" t="str">
-        <v>CAP, BW, SCH XS, B16.9, A234 WPB</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B110" t="str">
         <v>U.N</v>
       </c>
       <c r="C110" t="str">
-        <v>1"</v>
+        <v>6"x1/2"</v>
       </c>
       <c r="D110" t="str">
-        <v>CAP, SW, 3000#, B16.11, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="str">
         <v>U.N</v>
       </c>
       <c r="C111" t="str">
-        <v>1 1/2"</v>
+        <v>6"x1/2"</v>
       </c>
       <c r="D111" t="str">
-        <v>CAP, SW, 3000#, B16.11, A105</v>
+        <v>THREADOLET, 3000#, NPT, MSS-SP-97, A-105</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B112" t="str">
         <v>U.N</v>
       </c>
       <c r="C112" t="str">
-        <v>2"</v>
+        <v>3"x1/2"</v>
       </c>
       <c r="D112" t="str">
-        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
+        <v>THREADOLET, 6000#, MSS SP-97</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B113" t="str">
         <v>U.N</v>
       </c>
       <c r="C113" t="str">
-        <v>4"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D113" t="str">
-        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
+        <v>THREADOLET, 6000#, MSS SP-97</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114" t="str">
         <v>U.N</v>
       </c>
       <c r="C114" t="str">
-        <v>3"</v>
+        <v>4"x3/4"</v>
       </c>
       <c r="D114" t="str">
-        <v>CONTROL VALVE, GLOBE, LONG PATTERN, 900 LB, RTJ, ISA 75.08.06</v>
+        <v>THREADOLET, 6000#, MSS SP-97</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" t="str">
         <v>U.N</v>
       </c>
       <c r="C115" t="str">
-        <v>1/2"</v>
+        <v>8"x3"</v>
       </c>
       <c r="D115" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+        <v>WELDOLET, BW, 80, MSS-SP-97, A105</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B116" t="str">
         <v>U.N</v>
       </c>
       <c r="C116" t="str">
-        <v>3/4"</v>
+        <v>4"x2"</v>
       </c>
       <c r="D116" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+        <v>WELDOLET, BW, SCH 40, MSS-SP-97, A105</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B117" t="str">
         <v>U.N</v>
       </c>
       <c r="C117" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D117" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>5.520000000000003</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B118" t="str">
         <v>U.N</v>
       </c>
       <c r="C118" t="str">
-        <v>1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D118" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 600 LB, FPT, ISA S75.12</v>
+        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B119" t="str">
         <v>U.N</v>
@@ -2397,15 +2397,15 @@
         <v>1/2"</v>
       </c>
       <c r="D119" t="str">
-        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E119">
-        <v>3.220000000000002</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B120" t="str">
         <v>U.N</v>
@@ -2414,163 +2414,163 @@
         <v>3/4"</v>
       </c>
       <c r="D120" t="str">
-        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E120">
-        <v>0.84</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B121" t="str">
         <v>U.N</v>
       </c>
       <c r="C121" t="str">
-        <v>1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D121" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E121">
-        <v>0.39</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B122" t="str">
         <v>U.N</v>
       </c>
       <c r="C122" t="str">
-        <v>3/4"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D122" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E122">
-        <v>9.310000000000002</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B123" t="str">
         <v>U.N</v>
       </c>
       <c r="C123" t="str">
-        <v>1"</v>
+        <v>2"</v>
       </c>
       <c r="D123" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E123">
-        <v>4.419999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B124" t="str">
         <v>U.N</v>
       </c>
       <c r="C124" t="str">
-        <v>1 1/2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D124" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E124">
-        <v>13.759999999999998</v>
+        <v>6.999999999999997</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B125" t="str">
         <v>U.N</v>
       </c>
       <c r="C125" t="str">
-        <v>1"x1/2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D125" t="str">
-        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E125">
-        <v>1.2</v>
+        <v>5.499999999999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B126" t="str">
         <v>U.N</v>
       </c>
       <c r="C126" t="str">
-        <v>2"x1"</v>
+        <v>1"</v>
       </c>
       <c r="D126" t="str">
-        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E126">
-        <v>6.599999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B127" t="str">
         <v>U.N</v>
       </c>
       <c r="C127" t="str">
-        <v>6"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D127" t="str">
-        <v>LATERAL 45�, BW, B16.9</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" t="str">
         <v>U.N</v>
       </c>
       <c r="C128" t="str">
-        <v>2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D128" t="str">
-        <v>ORIFICE PLATE, # 150, RF, ASME B16.48</v>
+        <v>UNION, SW, 6000#, MSS-SP-83, A105</v>
       </c>
       <c r="E128">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129" t="str">
         <v>U.N</v>
       </c>
       <c r="C129" t="str">
-        <v>2"</v>
+        <v>4"</v>
       </c>
       <c r="D129" t="str">
-        <v>ORIFICE PLATE, 600 LB, RF, ASME B16.48</v>
+        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="130">
@@ -2581,13 +2581,13 @@
         <v>U.N</v>
       </c>
       <c r="C130" t="str">
-        <v>4"</v>
+        <v>6"</v>
       </c>
       <c r="D130" t="str">
-        <v>ORIFICE PLATE, 900 LB, RTJ, ASME B16.48</v>
+        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="131">
@@ -2598,30 +2598,30 @@
         <v>U.N</v>
       </c>
       <c r="C131" t="str">
-        <v>4"x1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D131" t="str">
-        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
+        <v>CAP, BW, SCH XS, B16.9, A234 WPB</v>
       </c>
       <c r="E131">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B132" t="str">
         <v>U.N</v>
       </c>
       <c r="C132" t="str">
-        <v>1/2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D132" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>CAP, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E132">
-        <v>2.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2635,44 +2635,44 @@
         <v>1"</v>
       </c>
       <c r="D133" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>CAP, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E133">
-        <v>0.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="str">
         <v>U.N</v>
       </c>
       <c r="C134" t="str">
-        <v>1 1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D134" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
       </c>
       <c r="E134">
-        <v>0.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B135" t="str">
         <v>U.N</v>
       </c>
       <c r="C135" t="str">
-        <v>2"x3"</v>
+        <v>4"</v>
       </c>
       <c r="D135" t="str">
-        <v>PRESSURE RELIEF VALVE, PILOT OPERATED, G, RF, API 526</v>
+        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
       </c>
       <c r="E135">
-        <v>26.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2686,287 +2686,287 @@
         <v>3"</v>
       </c>
       <c r="D136" t="str">
-        <v>Y-TYPE STRAINER, RF, #150, B16.10, A216 GR WCB</v>
+        <v>CONTROL VALVE, GLOBE, LONG PATTERN, 900 LB, RTJ, ISA 75.08.06</v>
       </c>
       <c r="E136">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" t="str">
         <v>U.N</v>
       </c>
       <c r="C137" t="str">
-        <v>1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D137" t="str">
-        <v>Y-TYPE STRAINER, SW, 3000#, B16.10, A216 GR WCB</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E137">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B138" t="str">
         <v>U.N</v>
       </c>
       <c r="C138" t="str">
-        <v>2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D138" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E138">
-        <v>18.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B139" t="str">
         <v>U.N</v>
       </c>
       <c r="C139" t="str">
-        <v>4"</v>
+        <v>3/4"</v>
       </c>
       <c r="D139" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E139">
-        <v>205.69999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B140" t="str">
         <v>U.N</v>
       </c>
       <c r="C140" t="str">
-        <v>8"</v>
+        <v>1/2"</v>
       </c>
       <c r="D140" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 600 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E140">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B141" t="str">
         <v>U.N</v>
       </c>
       <c r="C141" t="str">
-        <v>2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D141" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
       </c>
       <c r="E141">
-        <v>12.600000000000001</v>
+        <v>3.220000000000002</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B142" t="str">
         <v>U.N</v>
       </c>
       <c r="C142" t="str">
-        <v>3"</v>
+        <v>3/4"</v>
       </c>
       <c r="D142" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
       </c>
       <c r="E142">
-        <v>6.8999999999999995</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B143" t="str">
         <v>U.N</v>
       </c>
       <c r="C143" t="str">
-        <v>4"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D143" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E143">
-        <v>16.4</v>
+        <v>13.759999999999998</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B144" t="str">
         <v>U.N</v>
       </c>
       <c r="C144" t="str">
-        <v>6"</v>
+        <v>1"</v>
       </c>
       <c r="D144" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E144">
-        <v>23.6</v>
+        <v>4.419999999999999</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B145" t="str">
         <v>U.N</v>
       </c>
       <c r="C145" t="str">
-        <v>4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D145" t="str">
-        <v>FLANGE BLIND, RTJ, #900, B16.5, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E145">
-        <v>98</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B146" t="str">
         <v>U.N</v>
       </c>
       <c r="C146" t="str">
-        <v>1"</v>
+        <v>3/4"</v>
       </c>
       <c r="D146" t="str">
-        <v>FLANGE SW, #150, RF, B16.5, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E146">
-        <v>1.8</v>
+        <v>9.310000000000006</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B147" t="str">
         <v>U.N</v>
       </c>
       <c r="C147" t="str">
-        <v>1 1/2"</v>
+        <v>1"x1/2"</v>
       </c>
       <c r="D147" t="str">
-        <v>FLANGE SW, #150, RF, B16.5, A105</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E147">
-        <v>2.8</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B148" t="str">
         <v>U.N</v>
       </c>
       <c r="C148" t="str">
-        <v>2"</v>
+        <v>1"x3/4"</v>
       </c>
       <c r="D148" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E148">
-        <v>61.199999999999974</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B149" t="str">
         <v>U.N</v>
       </c>
       <c r="C149" t="str">
-        <v>3"</v>
+        <v>2"x1 1/2"</v>
       </c>
       <c r="D149" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E149">
-        <v>109.33999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B150" t="str">
         <v>U.N</v>
       </c>
       <c r="C150" t="str">
-        <v>4"</v>
+        <v>2"x1"</v>
       </c>
       <c r="D150" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E150">
-        <v>28.48</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B151" t="str">
         <v>U.N</v>
       </c>
       <c r="C151" t="str">
-        <v>6"</v>
+        <v>2"x1/2"</v>
       </c>
       <c r="D151" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E151">
-        <v>141.82999999999998</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" t="str">
         <v>U.N</v>
       </c>
       <c r="C152" t="str">
-        <v>4"</v>
+        <v>6"</v>
       </c>
       <c r="D152" t="str">
-        <v>FLANGE WN, #150, RF, SCH STD, B16.5, A105</v>
+        <v>LATERAL 45�, BW, B16.9</v>
       </c>
       <c r="E152">
-        <v>14.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B153" t="str">
         <v>U.N</v>
@@ -2975,32 +2975,32 @@
         <v>2"</v>
       </c>
       <c r="D153" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>ORIFICE PLATE, # 150, RF, ASME B16.48</v>
       </c>
       <c r="E153">
-        <v>36</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B154" t="str">
         <v>U.N</v>
       </c>
       <c r="C154" t="str">
-        <v>3"</v>
+        <v>2"</v>
       </c>
       <c r="D154" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>ORIFICE PLATE, 600 LB, RF, ASME B16.48</v>
       </c>
       <c r="E154">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B155" t="str">
         <v>U.N</v>
@@ -3009,27 +3009,27 @@
         <v>4"</v>
       </c>
       <c r="D155" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>ORIFICE PLATE, 900 LB, RTJ, ASME B16.48</v>
       </c>
       <c r="E155">
-        <v>981.2400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B156" t="str">
         <v>U.N</v>
       </c>
       <c r="C156" t="str">
-        <v>6"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D156" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
       </c>
       <c r="E156">
-        <v>152.84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157">
@@ -3040,290 +3040,290 @@
         <v>U.N</v>
       </c>
       <c r="C157" t="str">
-        <v>8"</v>
+        <v>4"x1/2"x4"</v>
       </c>
       <c r="D157" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
       </c>
       <c r="E157">
-        <v>60.96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B158" t="str">
         <v>U.N</v>
       </c>
       <c r="C158" t="str">
-        <v>2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D158" t="str">
-        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E158">
-        <v>43.2</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B159" t="str">
         <v>U.N</v>
       </c>
       <c r="C159" t="str">
-        <v>3"</v>
+        <v>1"</v>
       </c>
       <c r="D159" t="str">
-        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E159">
-        <v>105.84000000000002</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B160" t="str">
         <v>U.N</v>
       </c>
       <c r="C160" t="str">
-        <v>4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D160" t="str">
-        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E160">
-        <v>173.76</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B161" t="str">
         <v>U.N</v>
       </c>
       <c r="C161" t="str">
-        <v>1/2" x 70</v>
+        <v>2"x3"</v>
       </c>
       <c r="D161" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>PRESSURE RELIEF VALVE, PILOT OPERATED, G, RF, API 526</v>
       </c>
       <c r="E161">
-        <v>1.04</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B162" t="str">
         <v>U.N</v>
       </c>
       <c r="C162" t="str">
-        <v>1/2" x 64</v>
+        <v>3"</v>
       </c>
       <c r="D162" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>Y-TYPE STRAINER, RF, #150, B16.10, A216 GR WCB</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="B163" t="str">
         <v>U.N</v>
       </c>
       <c r="C163" t="str">
-        <v>5/8" x 83</v>
+        <v>1/2"</v>
       </c>
       <c r="D163" t="str">
-        <v>STUD BOLT, A193-B7/A194-2H/F436</v>
+        <v>Y-TYPE STRAINER, SW, 3000#, B16.10, A216 GR WCB</v>
       </c>
       <c r="E163">
-        <v>72.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="B164" t="str">
         <v>U.N</v>
       </c>
       <c r="C164" t="str">
-        <v>3/4" x 127</v>
+        <v>2"</v>
       </c>
       <c r="D164" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
       </c>
       <c r="E164">
-        <v>94.90999999999995</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>600</v>
+        <v>11</v>
       </c>
       <c r="B165" t="str">
         <v>U.N</v>
       </c>
       <c r="C165" t="str">
-        <v>7/8" x 146</v>
+        <v>4"</v>
       </c>
       <c r="D165" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
       </c>
       <c r="E165">
-        <v>427.98999999999927</v>
+        <v>205.69999999999996</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="B166" t="str">
         <v>U.N</v>
       </c>
       <c r="C166" t="str">
-        <v>1" x 171</v>
+        <v>8"</v>
       </c>
       <c r="D166" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
       </c>
       <c r="E166">
-        <v>98.16999999999999</v>
+        <v>64</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B167" t="str">
         <v>U.N</v>
       </c>
       <c r="C167" t="str">
-        <v>1 1/8" x 191</v>
+        <v>2"</v>
       </c>
       <c r="D167" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E167">
-        <v>34.88</v>
+        <v>12.600000000000001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B168" t="str">
         <v>U.N</v>
       </c>
       <c r="C168" t="str">
-        <v>1"</v>
+        <v>3"</v>
       </c>
       <c r="D168" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E168">
-        <v>0.08</v>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B169" t="str">
         <v>U.N</v>
       </c>
       <c r="C169" t="str">
-        <v>1 1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D169" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E169">
-        <v>0.12</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B170" t="str">
         <v>U.N</v>
       </c>
       <c r="C170" t="str">
-        <v>2"</v>
+        <v>6"</v>
       </c>
       <c r="D170" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E170">
-        <v>2.52</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B171" t="str">
         <v>U.N</v>
       </c>
       <c r="C171" t="str">
-        <v>3"</v>
+        <v>4"</v>
       </c>
       <c r="D171" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE BLIND, RTJ, #900, B16.5, A105</v>
       </c>
       <c r="E171">
-        <v>2.9400000000000017</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B172" t="str">
         <v>U.N</v>
       </c>
       <c r="C172" t="str">
-        <v>4"</v>
+        <v>1"</v>
       </c>
       <c r="D172" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE SW, #150, RF, B16.5, A105</v>
       </c>
       <c r="E172">
-        <v>2.7600000000000002</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B173" t="str">
         <v>U.N</v>
       </c>
       <c r="C173" t="str">
-        <v>6"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D173" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE SW, #150, RF, B16.5, A105</v>
       </c>
       <c r="E173">
-        <v>3.599999999999999</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B174" t="str">
         <v>U.N</v>
@@ -3332,15 +3332,15 @@
         <v>2"</v>
       </c>
       <c r="D174" t="str">
-        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E174">
-        <v>0.88</v>
+        <v>61.199999999999974</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B175" t="str">
         <v>U.N</v>
@@ -3349,15 +3349,15 @@
         <v>3"</v>
       </c>
       <c r="D175" t="str">
-        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E175">
-        <v>2.9600000000000004</v>
+        <v>109.33999999999999</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B176" t="str">
         <v>U.N</v>
@@ -3366,32 +3366,32 @@
         <v>4"</v>
       </c>
       <c r="D176" t="str">
-        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E176">
-        <v>6.48</v>
+        <v>28.48</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B177" t="str">
         <v>U.N</v>
       </c>
       <c r="C177" t="str">
-        <v>2"</v>
+        <v>6"</v>
       </c>
       <c r="D177" t="str">
-        <v>GASKET, SWG, 1/8" THK, RF, #150, B16.20</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E177">
-        <v>0.2</v>
+        <v>141.82999999999998</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B178" t="str">
         <v>U.N</v>
@@ -3400,15 +3400,15 @@
         <v>4"</v>
       </c>
       <c r="D178" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE WN, #150, RF, SCH STD, B16.5, A105</v>
       </c>
       <c r="E178">
-        <v>0.23</v>
+        <v>14.24</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B179" t="str">
         <v>U.N</v>
@@ -3417,15 +3417,15 @@
         <v>2"</v>
       </c>
       <c r="D179" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E179">
-        <v>1.4300000000000004</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B180" t="str">
         <v>U.N</v>
@@ -3434,15 +3434,15 @@
         <v>3"</v>
       </c>
       <c r="D180" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E180">
-        <v>1.8999999999999997</v>
+        <v>126</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B181" t="str">
         <v>U.N</v>
@@ -3451,15 +3451,15 @@
         <v>4"</v>
       </c>
       <c r="D181" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E181">
-        <v>15.680000000000009</v>
+        <v>981.2400000000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B182" t="str">
         <v>U.N</v>
@@ -3468,15 +3468,15 @@
         <v>6"</v>
       </c>
       <c r="D182" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E182">
-        <v>2.8499999999999996</v>
+        <v>152.84</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183" t="str">
         <v>U.N</v>
@@ -3485,197 +3485,197 @@
         <v>8"</v>
       </c>
       <c r="D183" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E183">
-        <v>1.48</v>
+        <v>60.96</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B184" t="str">
         <v>U.N</v>
       </c>
       <c r="C184" t="str">
-        <v>1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D184" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B185" t="str">
         <v>U.N</v>
       </c>
       <c r="C185" t="str">
-        <v>1"</v>
+        <v>3"</v>
       </c>
       <c r="D185" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>105.84000000000002</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B186" t="str">
         <v>U.N</v>
       </c>
       <c r="C186" t="str">
-        <v>1 1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D186" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>173.76</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B187" t="str">
         <v>U.N</v>
       </c>
       <c r="C187" t="str">
-        <v>2"</v>
+        <v>1/2" x 70</v>
       </c>
       <c r="D187" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E187">
-        <v>150</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B188" t="str">
         <v>U.N</v>
       </c>
       <c r="C188" t="str">
-        <v>3"</v>
+        <v>1/2" x 64</v>
       </c>
       <c r="D188" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E188">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="B189" t="str">
         <v>U.N</v>
       </c>
       <c r="C189" t="str">
-        <v>4"</v>
+        <v>5/8" x 83</v>
       </c>
       <c r="D189" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v>STUD BOLT, A193-B7/A194-2H/F436</v>
       </c>
       <c r="E189">
-        <v>180</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="B190" t="str">
         <v>U.N</v>
       </c>
       <c r="C190" t="str">
-        <v>6"</v>
+        <v>3/4" x 127</v>
       </c>
       <c r="D190" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E190">
-        <v>231</v>
+        <v>94.90999999999995</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="B191" t="str">
         <v>U.N</v>
       </c>
       <c r="C191" t="str">
-        <v>3"</v>
+        <v>7/8" x 146</v>
       </c>
       <c r="D191" t="str">
-        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E191">
-        <v>144</v>
+        <v>427.98999999999927</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="B192" t="str">
         <v>U.N</v>
       </c>
       <c r="C192" t="str">
-        <v>4"</v>
+        <v>1" x 171</v>
       </c>
       <c r="D192" t="str">
-        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E192">
-        <v>476</v>
+        <v>98.16999999999999</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B193" t="str">
         <v>U.N</v>
       </c>
       <c r="C193" t="str">
-        <v>1/2"</v>
+        <v>1 1/8" x 191</v>
       </c>
       <c r="D193" t="str">
-        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>34.88</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B194" t="str">
         <v>U.N</v>
       </c>
       <c r="C194" t="str">
-        <v>3/4"</v>
+        <v>1"</v>
       </c>
       <c r="D194" t="str">
-        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="195">
@@ -3686,86 +3686,86 @@
         <v>U.N</v>
       </c>
       <c r="C195" t="str">
-        <v>3"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D195" t="str">
-        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E195">
-        <v>110</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B196" t="str">
         <v>U.N</v>
       </c>
       <c r="C196" t="str">
-        <v>4"</v>
+        <v>2"</v>
       </c>
       <c r="D196" t="str">
-        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E196">
-        <v>344</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B197" t="str">
         <v>U.N</v>
       </c>
       <c r="C197" t="str">
-        <v>4"</v>
+        <v>3"</v>
       </c>
       <c r="D197" t="str">
-        <v>CHECK VALVE SWING, RF, #600, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E197">
-        <v>366</v>
+        <v>2.9400000000000017</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B198" t="str">
         <v>U.N</v>
       </c>
       <c r="C198" t="str">
-        <v>1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D198" t="str">
-        <v>CHECK VALVE, NPT, SPRING LOADED BALL B16.10, A105</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E198">
-        <v>2.8</v>
+        <v>2.7600000000000002</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B199" t="str">
         <v>U.N</v>
       </c>
       <c r="C199" t="str">
-        <v>1 1/2"</v>
+        <v>6"</v>
       </c>
       <c r="D199" t="str">
-        <v>CHECK VALVE, SPRING LOADED BALL, NPT, B16.10, A105</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E199">
-        <v>18.2</v>
+        <v>3.599999999999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B200" t="str">
         <v>U.N</v>
@@ -3774,44 +3774,44 @@
         <v>2"</v>
       </c>
       <c r="D200" t="str">
-        <v>CHECK VALVE, SWING, RF, #150, B16.10, A216 GR WCB</v>
+        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
       </c>
       <c r="E200">
-        <v>38</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B201" t="str">
         <v>U.N</v>
       </c>
       <c r="C201" t="str">
-        <v>1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D201" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
       </c>
       <c r="E201">
-        <v>7.199999999999999</v>
+        <v>2.9600000000000004</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B202" t="str">
         <v>U.N</v>
       </c>
       <c r="C202" t="str">
-        <v>1"</v>
+        <v>4"</v>
       </c>
       <c r="D202" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
       </c>
       <c r="E202">
-        <v>28</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="203">
@@ -3822,98 +3822,98 @@
         <v>U.N</v>
       </c>
       <c r="C203" t="str">
-        <v>1 1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D203" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v>GASKET, SWG, 1/8" THK, RF, #150, B16.20</v>
       </c>
       <c r="E203">
-        <v>19.52</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B204" t="str">
         <v>U.N</v>
       </c>
       <c r="C204" t="str">
-        <v>1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D204" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E204">
-        <v>78.39999999999996</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B205" t="str">
         <v>U.N</v>
       </c>
       <c r="C205" t="str">
-        <v>3/4"</v>
+        <v>2"</v>
       </c>
       <c r="D205" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E205">
-        <v>76.5</v>
+        <v>1.4300000000000004</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B206" t="str">
         <v>U.N</v>
       </c>
       <c r="C206" t="str">
-        <v>1"</v>
+        <v>3"</v>
       </c>
       <c r="D206" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E206">
-        <v>7</v>
+        <v>1.8999999999999997</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B207" t="str">
         <v>U.N</v>
       </c>
       <c r="C207" t="str">
-        <v>1 1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D207" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E207">
-        <v>30</v>
+        <v>15.680000000000009</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B208" t="str">
         <v>U.N</v>
       </c>
       <c r="C208" t="str">
-        <v>2"</v>
+        <v>6"</v>
       </c>
       <c r="D208" t="str">
-        <v>GLOBE VALVE, RF, 600#, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E208">
-        <v>57</v>
+        <v>2.8499999999999996</v>
       </c>
     </row>
     <row r="209">
@@ -3924,18 +3924,18 @@
         <v>U.N</v>
       </c>
       <c r="C209" t="str">
-        <v>2"</v>
+        <v>8"</v>
       </c>
       <c r="D209" t="str">
-        <v>GLOBE VALVE, RTJ, #900, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E209">
-        <v>174</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B210" t="str">
         <v>U.N</v>
@@ -3944,24 +3944,24 @@
         <v>1/2"</v>
       </c>
       <c r="D210" t="str">
-        <v>GLOBE VALVE, SW, 1500#, A105</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B211" t="str">
         <v>U.N</v>
       </c>
       <c r="C211" t="str">
-        <v>1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D211" t="str">
-        <v>NEEDLE VALVE, #3000, SS 316</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -3969,16 +3969,16 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B212" t="str">
         <v>U.N</v>
       </c>
       <c r="C212" t="str">
-        <v>1"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D212" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -3986,75 +3986,75 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B213" t="str">
         <v>U.N</v>
       </c>
       <c r="C213" t="str">
-        <v>1 1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D213" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B214" t="str">
         <v>U.N</v>
       </c>
       <c r="C214" t="str">
-        <v>2"</v>
+        <v>3"</v>
       </c>
       <c r="D214" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B215" t="str">
         <v>U.N</v>
       </c>
       <c r="C215" t="str">
-        <v>3"</v>
+        <v>4"</v>
       </c>
       <c r="D215" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B216" t="str">
         <v>U.N</v>
       </c>
       <c r="C216" t="str">
-        <v>4"</v>
+        <v>6"</v>
       </c>
       <c r="D216" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B217" t="str">
         <v>U.N</v>
@@ -4063,15 +4063,15 @@
         <v>3"</v>
       </c>
       <c r="D217" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B218" t="str">
         <v>U.N</v>
@@ -4080,24 +4080,24 @@
         <v>4"</v>
       </c>
       <c r="D218" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>476</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B219" t="str">
         <v>U.N</v>
       </c>
       <c r="C219" t="str">
-        <v>6"</v>
+        <v>1/2"</v>
       </c>
       <c r="D219" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -4105,16 +4105,16 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B220" t="str">
         <v>U.N</v>
       </c>
       <c r="C220" t="str">
-        <v>2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D220" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B221" t="str">
         <v>U.N</v>
@@ -4131,15 +4131,15 @@
         <v>3"</v>
       </c>
       <c r="D221" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="B222" t="str">
         <v>U.N</v>
@@ -4148,112 +4148,112 @@
         <v>4"</v>
       </c>
       <c r="D222" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B223" t="str">
         <v>U.N</v>
       </c>
       <c r="C223" t="str">
-        <v>6"</v>
+        <v>4"</v>
       </c>
       <c r="D223" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>CHECK VALVE SWING, RF, #600, B16.10, A216 GR WCB</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>366</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B224" t="str">
         <v>U.N</v>
       </c>
       <c r="C224" t="str">
-        <v>8"</v>
+        <v>1/2"</v>
       </c>
       <c r="D224" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>CHECK VALVE, NPT, SPRING LOADED BALL B16.10, A105</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>223</v>
+        <v>2</v>
       </c>
       <c r="B225" t="str">
         <v>U.N</v>
       </c>
       <c r="C225" t="str">
-        <v>1/2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D225" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>CHECK VALVE, SPRING LOADED BALL, NPT, B16.10, A105</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="B226" t="str">
         <v>U.N</v>
       </c>
       <c r="C226" t="str">
-        <v>3/4"</v>
+        <v>2"</v>
       </c>
       <c r="D226" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>CHECK VALVE, SWING, RF, #150, B16.10, A216 GR WCB</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>214</v>
+        <v>3</v>
       </c>
       <c r="B227" t="str">
         <v>U.N</v>
       </c>
       <c r="C227" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D227" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="B228" t="str">
         <v>U.N</v>
       </c>
       <c r="C228" t="str">
-        <v>1 1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D228" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="229">
@@ -4264,103 +4264,103 @@
         <v>U.N</v>
       </c>
       <c r="C229" t="str">
-        <v>1/2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D229" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B230" t="str">
         <v>U.N</v>
       </c>
       <c r="C230" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D230" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>78.39999999999996</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B231" t="str">
         <v>U.N</v>
       </c>
       <c r="C231" t="str">
-        <v>1 1/2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D231" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B232" t="str">
         <v>U.N</v>
       </c>
       <c r="C232" t="str">
-        <v>2"</v>
+        <v>1"</v>
       </c>
       <c r="D232" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B233" t="str">
         <v>U.N</v>
       </c>
       <c r="C233" t="str">
-        <v>1"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D233" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B234" t="str">
         <v>U.N</v>
       </c>
       <c r="C234" t="str">
-        <v>1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D234" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>GLOBE VALVE, RF, 600#, B16.10, A216 GR WCB</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B235" t="str">
         <v>U.N</v>
@@ -4369,41 +4369,41 @@
         <v>2"</v>
       </c>
       <c r="D235" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>GLOBE VALVE, RTJ, #900, B16.10, A216 GR WCB</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B236" t="str">
         <v>U.N</v>
       </c>
       <c r="C236" t="str">
-        <v>3"</v>
+        <v>1/2"</v>
       </c>
       <c r="D236" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>GLOBE VALVE, SW, 1500#, A105</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B237" t="str">
         <v>U.N</v>
       </c>
       <c r="C237" t="str">
-        <v>3/4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D237" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>NEEDLE VALVE, #3000, SS 316</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -4411,16 +4411,16 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B238" t="str">
         <v>U.N</v>
       </c>
       <c r="C238" t="str">
-        <v>4"</v>
+        <v>1"</v>
       </c>
       <c r="D238" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B239" t="str">
         <v>U.N</v>
@@ -4437,7 +4437,7 @@
         <v>1 1/2"</v>
       </c>
       <c r="D239" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -4445,16 +4445,16 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B240" t="str">
         <v>U.N</v>
       </c>
       <c r="C240" t="str">
-        <v>1"</v>
+        <v>2"</v>
       </c>
       <c r="D240" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -4462,16 +4462,16 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B241" t="str">
         <v>U.N</v>
       </c>
       <c r="C241" t="str">
-        <v>1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D241" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -4479,16 +4479,16 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B242" t="str">
         <v>U.N</v>
       </c>
       <c r="C242" t="str">
-        <v>3/4"</v>
+        <v>4"</v>
       </c>
       <c r="D242" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -4496,16 +4496,16 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B243" t="str">
         <v>U.N</v>
       </c>
       <c r="C243" t="str">
-        <v>1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D243" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -4513,16 +4513,16 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B244" t="str">
         <v>U.N</v>
       </c>
       <c r="C244" t="str">
-        <v>3/4"</v>
+        <v>4"</v>
       </c>
       <c r="D244" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -4530,16 +4530,16 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B245" t="str">
         <v>U.N</v>
       </c>
       <c r="C245" t="str">
-        <v>1"</v>
+        <v>6"</v>
       </c>
       <c r="D245" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -4547,16 +4547,16 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B246" t="str">
         <v>U.N</v>
       </c>
       <c r="C246" t="str">
-        <v>1 1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D246" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -4564,16 +4564,16 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B247" t="str">
         <v>U.N</v>
       </c>
       <c r="C247" t="str">
-        <v>2"</v>
+        <v>3"</v>
       </c>
       <c r="D247" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -4581,16 +4581,16 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B248" t="str">
         <v>U.N</v>
       </c>
       <c r="C248" t="str">
-        <v>1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D248" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -4598,16 +4598,16 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B249" t="str">
         <v>U.N</v>
       </c>
       <c r="C249" t="str">
-        <v>3/4"</v>
+        <v>6"</v>
       </c>
       <c r="D249" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -4615,16 +4615,16 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B250" t="str">
         <v>U.N</v>
       </c>
       <c r="C250" t="str">
-        <v>1"</v>
+        <v>8"</v>
       </c>
       <c r="D250" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -4632,16 +4632,16 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="B251" t="str">
         <v>U.N</v>
       </c>
       <c r="C251" t="str">
-        <v>1 1/2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D251" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -4649,24 +4649,466 @@
     </row>
     <row r="252">
       <c r="A252">
+        <v>287</v>
+      </c>
+      <c r="B252" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C252" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D252" t="str">
+        <v>SOCKETWELD  SCH 160</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>214</v>
+      </c>
+      <c r="B253" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C253" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D253" t="str">
+        <v>SOCKETWELD  SCH 160</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>156</v>
+      </c>
+      <c r="B254" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C254" t="str">
+        <v>1 1/2"</v>
+      </c>
+      <c r="D254" t="str">
+        <v>SOCKETWELD  SCH 160</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C255" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D255" t="str">
+        <v>SOCKETWELD  SCH 80</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C256" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D256" t="str">
+        <v>SOCKETWELD  SCH 80</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C257" t="str">
+        <v>1 1/2"</v>
+      </c>
+      <c r="D257" t="str">
+        <v>SOCKETWELD  SCH 80</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>6</v>
+      </c>
+      <c r="B258" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C258" t="str">
+        <v>2"</v>
+      </c>
+      <c r="D258" t="str">
+        <v>SOCKETWELD  SCH 80</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>11</v>
+      </c>
+      <c r="B259" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C259" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D259" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>35</v>
+      </c>
+      <c r="B260" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C260" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D260" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>7</v>
+      </c>
+      <c r="B261" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C261" t="str">
+        <v>2"</v>
+      </c>
+      <c r="D261" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
         <v>3</v>
       </c>
-      <c r="B252" t="str">
-        <v>U.N</v>
-      </c>
-      <c r="C252" t="str">
+      <c r="B262" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C262" t="str">
+        <v>3"</v>
+      </c>
+      <c r="D262" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>11</v>
+      </c>
+      <c r="B263" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C263" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D263" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C264" t="str">
+        <v>4"</v>
+      </c>
+      <c r="D264" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C265" t="str">
+        <v>1 1/2"</v>
+      </c>
+      <c r="D265" t="str">
+        <v>TAPWELD 6000#</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C266" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D266" t="str">
+        <v>TAPWELD 6000#</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>9</v>
+      </c>
+      <c r="B267" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C267" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D267" t="str">
+        <v>TAPWELD 6000#</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C268" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D268" t="str">
+        <v>TAPWELD 6000#</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>120</v>
+      </c>
+      <c r="B269" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C269" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D269" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>43</v>
+      </c>
+      <c r="B270" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C270" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D270" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>23</v>
+      </c>
+      <c r="B271" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C271" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D271" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>18</v>
+      </c>
+      <c r="B272" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C272" t="str">
+        <v>1 1/2"</v>
+      </c>
+      <c r="D272" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>6</v>
+      </c>
+      <c r="B273" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C273" t="str">
         <v>2"</v>
       </c>
-      <c r="D252" t="str">
+      <c r="D273" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>162</v>
+      </c>
+      <c r="B274" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C274" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D274" t="str">
         <v>THREAD  SCH 80</v>
       </c>
-      <c r="E252">
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>11</v>
+      </c>
+      <c r="B275" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C275" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D275" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>37</v>
+      </c>
+      <c r="B276" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C276" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D276" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>6</v>
+      </c>
+      <c r="B277" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C277" t="str">
+        <v>1 1/2"</v>
+      </c>
+      <c r="D277" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C278" t="str">
+        <v>2"</v>
+      </c>
+      <c r="D278" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E278">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E252"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E278"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/MTO.xlsx
+++ b/MTO.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:N293"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,10 +385,10 @@
         <v>quantity</v>
       </c>
       <c r="B1" t="str">
+        <v>cutLength</v>
+      </c>
+      <c r="C1" t="str">
         <v>unit</v>
-      </c>
-      <c r="C1" t="str">
-        <v>size</v>
       </c>
       <c r="D1" t="str">
         <v>longDescription</v>
@@ -396,16 +396,43 @@
       <c r="E1" t="str">
         <v>weight</v>
       </c>
+      <c r="F1" t="str">
+        <v>size</v>
+      </c>
+      <c r="G1" t="str">
+        <v>nominalDiameter</v>
+      </c>
+      <c r="H1" t="str">
+        <v>status</v>
+      </c>
+      <c r="I1" t="str">
+        <v>weightUnit</v>
+      </c>
+      <c r="J1" t="str">
+        <v>pressureClass</v>
+      </c>
+      <c r="K1" t="str">
+        <v>longDescriptionSize</v>
+      </c>
+      <c r="L1" t="str">
+        <v>x</v>
+      </c>
+      <c r="M1" t="str">
+        <v>y</v>
+      </c>
+      <c r="N1" t="str">
+        <v>z</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>310.2</v>
+        <v>313.22</v>
       </c>
       <c r="B2" t="str">
+        <v>2429.00</v>
+      </c>
+      <c r="C2" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1/2"</v>
       </c>
       <c r="D2" t="str">
         <v>PIPE, SCH 80, PE, B36.1, A-106 GR.B</v>
@@ -413,16 +440,19 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="str">
+        <v>1/2"</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>22.380000000000003</v>
+        <v>22.38</v>
       </c>
       <c r="B3" t="str">
+        <v>174.64</v>
+      </c>
+      <c r="C3" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C3" t="str">
-        <v>3/4"</v>
       </c>
       <c r="D3" t="str">
         <v>PIPE, SCH 80, PE, B36.1, A-106 GR.B</v>
@@ -430,16 +460,19 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="str">
+        <v>3/4"</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>68.11</v>
+        <v>66.95999999999998</v>
       </c>
       <c r="B4" t="str">
+        <v>1536.78</v>
+      </c>
+      <c r="C4" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C4" t="str">
-        <v>1"</v>
       </c>
       <c r="D4" t="str">
         <v>PIPE, SCH 80, PE, B36.1, A-106 GR.B</v>
@@ -447,277 +480,328 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="str">
+        <v>1"</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.6800000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="B5" t="str">
+        <v>260.35</v>
+      </c>
+      <c r="C5" t="str">
         <v>M.L</v>
       </c>
-      <c r="C5" t="str">
-        <v>1 1/2"</v>
-      </c>
       <c r="D5" t="str">
-        <v>PIPE, SCH 80, PE, B36.1, A-106 GR.B</v>
+        <v>PIPE, SEAMLESS, BE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>23.997599999999995</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.5</v>
+        <v>4.2299999999999995</v>
       </c>
       <c r="B6" t="str">
+        <v>417.40</v>
+      </c>
+      <c r="C6" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2"</v>
       </c>
       <c r="D6" t="str">
         <v>PIPE, SEAMLESS, BE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E6">
-        <v>16.665</v>
+        <v>90.31049999999999</v>
+      </c>
+      <c r="F6" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>4.14</v>
+        <v>77.91</v>
       </c>
       <c r="B7" t="str">
+        <v>1183.43</v>
+      </c>
+      <c r="C7" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C7" t="str">
-        <v>3"</v>
       </c>
       <c r="D7" t="str">
         <v>PIPE, SEAMLESS, BE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E7">
-        <v>88.389</v>
+        <v>2613.1013999999996</v>
+      </c>
+      <c r="F7" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>75.57</v>
+        <v>11.519999999999998</v>
       </c>
       <c r="B8" t="str">
+        <v>891.80</v>
+      </c>
+      <c r="C8" t="str">
         <v>M.L</v>
       </c>
-      <c r="C8" t="str">
-        <v>4"</v>
-      </c>
       <c r="D8" t="str">
-        <v>PIPE, SEAMLESS, BE, SCH 160, B36.10, A106 GR. B</v>
+        <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E8">
-        <v>2534.6178</v>
+        <v>62.66880000000001</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>11.520000000000005</v>
+        <v>34.639999999999986</v>
       </c>
       <c r="B9" t="str">
+        <v>1060.10</v>
+      </c>
+      <c r="C9" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2"</v>
       </c>
       <c r="D9" t="str">
         <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E9">
-        <v>62.668800000000026</v>
+        <v>391.0856</v>
+      </c>
+      <c r="F9" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>34.64</v>
+        <v>5.52</v>
       </c>
       <c r="B10" t="str">
+        <v>998.32</v>
+      </c>
+      <c r="C10" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C10" t="str">
-        <v>3"</v>
       </c>
       <c r="D10" t="str">
         <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E10">
-        <v>391.08559999999994</v>
+        <v>88.76159999999999</v>
+      </c>
+      <c r="F10" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>6.06</v>
+        <v>317.61999999999995</v>
       </c>
       <c r="B11" t="str">
+        <v>510.54</v>
+      </c>
+      <c r="C11" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C11" t="str">
-        <v>4"</v>
       </c>
       <c r="D11" t="str">
         <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E11">
-        <v>97.44479999999999</v>
+        <v>8975.941200000001</v>
+      </c>
+      <c r="F11" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>310.6199999999999</v>
+        <v>32.74</v>
       </c>
       <c r="B12" t="str">
+        <v>332.67</v>
+      </c>
+      <c r="C12" t="str">
         <v>M.L</v>
       </c>
-      <c r="C12" t="str">
-        <v>6"</v>
-      </c>
       <c r="D12" t="str">
-        <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
+        <v>PIPE, SEAMLESS, BE, SCH 80, B36.10, A106 GR B</v>
       </c>
       <c r="E12">
-        <v>8778.1212</v>
+        <v>499.93980000000005</v>
+      </c>
+      <c r="F12" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>32.74000000000001</v>
+        <v>181.70999999999995</v>
       </c>
       <c r="B13" t="str">
+        <v>200.00</v>
+      </c>
+      <c r="C13" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C13" t="str">
-        <v>3"</v>
       </c>
       <c r="D13" t="str">
         <v>PIPE, SEAMLESS, BE, SCH 80, B36.10, A106 GR B</v>
       </c>
       <c r="E13">
-        <v>499.93980000000005</v>
+        <v>4055.7671999999993</v>
+      </c>
+      <c r="F13" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>184.01999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="B14" t="str">
+        <v>164.70</v>
+      </c>
+      <c r="C14" t="str">
         <v>M.L</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
+        <v>PIPE, SEAMLESS, BE, SCH XS, B36.10, A106 GR B</v>
+      </c>
+      <c r="E14">
+        <v>7.365600000000001</v>
+      </c>
+      <c r="F14" t="str">
         <v>4"</v>
-      </c>
-      <c r="D14" t="str">
-        <v>PIPE, SEAMLESS, BE, SCH 80, B36.10, A106 GR B</v>
-      </c>
-      <c r="E14">
-        <v>4107.3264</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.33</v>
+        <v>47.87000000000004</v>
       </c>
       <c r="B15" t="str">
+        <v>123.62</v>
+      </c>
+      <c r="C15" t="str">
         <v>M.L</v>
       </c>
-      <c r="C15" t="str">
-        <v>4"</v>
-      </c>
       <c r="D15" t="str">
-        <v>PIPE, SEAMLESS, BE, SCH XS, B36.10, A106 GR B</v>
+        <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E15">
-        <v>7.365600000000001</v>
+        <v>93.3464999999999</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>48.80000000000005</v>
+        <v>369.32999999999976</v>
       </c>
       <c r="B16" t="str">
+        <v>288.40</v>
+      </c>
+      <c r="C16" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C16" t="str">
-        <v>1/2"</v>
       </c>
       <c r="D16" t="str">
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E16">
-        <v>95.16000000000001</v>
+        <v>1071.0569999999993</v>
+      </c>
+      <c r="F16" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>369.1799999999998</v>
+        <v>172.17999999999992</v>
       </c>
       <c r="B17" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="C17" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C17" t="str">
-        <v>3/4"</v>
       </c>
       <c r="D17" t="str">
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E17">
-        <v>1070.621999999998</v>
+        <v>730.0431999999998</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>170.35999999999999</v>
+        <v>174.21999999999997</v>
       </c>
       <c r="B18" t="str">
+        <v>1598.00</v>
+      </c>
+      <c r="C18" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C18" t="str">
-        <v>1"</v>
       </c>
       <c r="D18" t="str">
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E18">
-        <v>722.3264000000003</v>
+        <v>1263.095000000001</v>
+      </c>
+      <c r="F18" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>169.25</v>
+        <v>1.86</v>
       </c>
       <c r="B19" t="str">
+        <v>415.39</v>
+      </c>
+      <c r="C19" t="str">
         <v>M.L</v>
-      </c>
-      <c r="C19" t="str">
-        <v>1 1/2"</v>
       </c>
       <c r="D19" t="str">
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E19">
-        <v>1227.0625000000002</v>
+        <v>20.664599999999997</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="B20" t="str">
-        <v>M.L</v>
+        <v>-</v>
       </c>
       <c r="C20" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D20" t="str">
+        <v>ELL 45 LR, BW, SCH 40, B16.9, A234 WPB</v>
+      </c>
+      <c r="E20">
+        <v>0.96</v>
+      </c>
+      <c r="F20" t="str">
         <v>2"</v>
-      </c>
-      <c r="D20" t="str">
-        <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
-      </c>
-      <c r="E20">
-        <v>20.6646</v>
       </c>
     </row>
     <row r="21">
@@ -725,16 +809,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C21" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D21" t="str">
         <v>ELL 45 LR, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E21">
-        <v>0.96</v>
+        <v>3.06</v>
+      </c>
+      <c r="F21" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="22">
@@ -742,50 +829,59 @@
         <v>3</v>
       </c>
       <c r="B22" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C22" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D22" t="str">
         <v>ELL 45 LR, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E22">
-        <v>3.06</v>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C23" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D23" t="str">
-        <v>ELL 45 LR, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>ELL 45 LR, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E23">
-        <v>15.299999999999999</v>
+        <v>6.8500000000000005</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C24" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D24" t="str">
         <v>ELL 45 LR, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E24">
-        <v>6.8500000000000005</v>
+        <v>16.2</v>
+      </c>
+      <c r="F24" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="25">
@@ -793,84 +889,99 @@
         <v>6</v>
       </c>
       <c r="B25" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C25" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D25" t="str">
-        <v>ELL 45 LR, BW, SCH 80, B16.9, A234 WPB</v>
+        <v xml:space="preserve">ELL 45, 3000#, NPT, B16.11, A-105 </v>
       </c>
       <c r="E25">
-        <v>16.2</v>
+        <v>1.5</v>
+      </c>
+      <c r="F25" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B26" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C26" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D26" t="str">
+        <v>ELL 45, SW, 3000#, B16.11, A105</v>
+      </c>
+      <c r="E26">
+        <v>1.4299999999999997</v>
+      </c>
+      <c r="F26" t="str">
         <v>1/2"</v>
-      </c>
-      <c r="D26" t="str">
-        <v xml:space="preserve">ELL 45, 3000#, NPT, B16.11, A-105 </v>
-      </c>
-      <c r="E26">
-        <v>1.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B27" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C27" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D27" t="str">
         <v>ELL 45, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E27">
-        <v>1.4299999999999997</v>
+        <v>1.05</v>
+      </c>
+      <c r="F27" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B28" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C28" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D28" t="str">
         <v>ELL 45, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E28">
-        <v>1.05</v>
+        <v>4.759999999999999</v>
+      </c>
+      <c r="F28" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B29" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C29" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D29" t="str">
         <v>ELL 45, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E29">
-        <v>4.759999999999999</v>
+        <v>5.16</v>
+      </c>
+      <c r="F29" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="30">
@@ -878,203 +989,239 @@
         <v>6</v>
       </c>
       <c r="B30" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C30" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D30" t="str">
-        <v>ELL 45, SW, 3000#, B16.11, A105</v>
+        <v>ELL 90 LR, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E30">
-        <v>5.16</v>
+        <v>9</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C31" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D31" t="str">
         <v>ELL 90 LR, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F31" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C32" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D32" t="str">
         <v>ELL 90 LR, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="F32" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C33" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D33" t="str">
-        <v>ELL 90 LR, BW, SCH 160, B16.9, A234 WPB</v>
+        <v>ELL 90 LR, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>3.9</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B34" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C34" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D34" t="str">
         <v>ELL 90 LR, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E34">
-        <v>3.9</v>
+        <v>28.420000000000005</v>
+      </c>
+      <c r="F34" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B35" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C35" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D35" t="str">
         <v>ELL 90 LR, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E35">
-        <v>28.420000000000005</v>
+        <v>11.7</v>
+      </c>
+      <c r="F35" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B36" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C36" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D36" t="str">
         <v>ELL 90 LR, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E36">
-        <v>11.7</v>
+        <v>81.60000000000001</v>
+      </c>
+      <c r="F36" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B37" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C37" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D37" t="str">
-        <v>ELL 90 LR, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>ELL 90 LR, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E37">
-        <v>81.60000000000001</v>
+        <v>2.82</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B38" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C38" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D38" t="str">
         <v>ELL 90 LR, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E38">
-        <v>2.82</v>
+        <v>35.75</v>
+      </c>
+      <c r="F38" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B39" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C39" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D39" t="str">
         <v>ELL 90 LR, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E39">
-        <v>35.75</v>
+        <v>167.4000000000001</v>
+      </c>
+      <c r="F39" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C40" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D40" t="str">
-        <v>ELL 90 LR, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>ELL 90, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E40">
-        <v>167.4000000000001</v>
+        <v>5.5100000000000025</v>
+      </c>
+      <c r="F40" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B41" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C41" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D41" t="str">
         <v>ELL 90, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E41">
-        <v>4.37</v>
+        <v>0.6</v>
+      </c>
+      <c r="F41" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="42">
@@ -1082,118 +1229,139 @@
         <v>2</v>
       </c>
       <c r="B42" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C42" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D42" t="str">
         <v>ELL 90, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E42">
-        <v>0.6</v>
+        <v>0.96</v>
+      </c>
+      <c r="F42" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B43" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C43" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D43" t="str">
-        <v>ELL 90, 3000#, NPT, B16.11, A-105</v>
+        <v>ELL 90, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E43">
-        <v>0.96</v>
+        <v>4.65</v>
+      </c>
+      <c r="F43" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B44" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C44" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D44" t="str">
-        <v>ELL 90, 3000#, NPT, B16.11, A-105</v>
+        <v>ELL 90, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E44">
-        <v>2.42</v>
+        <v>8.880000000000006</v>
+      </c>
+      <c r="F44" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C45" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D45" t="str">
         <v>ELL 90, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E45">
-        <v>5.100000000000001</v>
+        <v>13.30000000000001</v>
+      </c>
+      <c r="F45" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B46" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C46" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D46" t="str">
         <v>ELL 90, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E46">
-        <v>8.880000000000006</v>
+        <v>18.24000000000001</v>
+      </c>
+      <c r="F46" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B47" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C47" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D47" t="str">
-        <v>ELL 90, SW, 3000#, B16.11, A105</v>
+        <v>TEE RED, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E47">
-        <v>13.30000000000001</v>
+        <v>1.34</v>
+      </c>
+      <c r="F47" t="str">
+        <v>1"x1/2"</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B48" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C48" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D48" t="str">
-        <v>ELL 90, SW, 3000#, B16.11, A105</v>
+        <v>TEE RED, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E48">
-        <v>16.320000000000007</v>
+        <v>1.34</v>
+      </c>
+      <c r="F48" t="str">
+        <v>1"x1/2"x1"</v>
       </c>
     </row>
     <row r="49">
@@ -1201,16 +1369,19 @@
         <v>2</v>
       </c>
       <c r="B49" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C49" t="str">
-        <v>1"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D49" t="str">
-        <v>TEE RED, 3000#, NPT, B16.11, A-105</v>
+        <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E49">
-        <v>1.34</v>
+        <v>11</v>
+      </c>
+      <c r="F49" t="str">
+        <v>3"x2"</v>
       </c>
     </row>
     <row r="50">
@@ -1218,16 +1389,19 @@
         <v>2</v>
       </c>
       <c r="B50" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C50" t="str">
-        <v>1"x1/2"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D50" t="str">
-        <v>TEE RED, 3000#, NPT, B16.11, A-105</v>
+        <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E50">
-        <v>1.34</v>
+        <v>11</v>
+      </c>
+      <c r="F50" t="str">
+        <v>3"x2"x3"</v>
       </c>
     </row>
     <row r="51">
@@ -1235,16 +1409,19 @@
         <v>2</v>
       </c>
       <c r="B51" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C51" t="str">
-        <v>3"x2"</v>
+        <v>U.N</v>
       </c>
       <c r="D51" t="str">
         <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="F51" t="str">
+        <v>4"x2"</v>
       </c>
     </row>
     <row r="52">
@@ -1252,50 +1429,59 @@
         <v>2</v>
       </c>
       <c r="B52" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C52" t="str">
-        <v>3"x2"x3"</v>
+        <v>U.N</v>
       </c>
       <c r="D52" t="str">
         <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E52">
-        <v>11</v>
+        <v>31.8</v>
+      </c>
+      <c r="F52" t="str">
+        <v>4"x3"</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C53" t="str">
-        <v>4"x3"</v>
+        <v>U.N</v>
       </c>
       <c r="D53" t="str">
-        <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
+        <v>TEE RED, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E53">
-        <v>31.8</v>
+        <v>96</v>
+      </c>
+      <c r="F53" t="str">
+        <v>6"x3"x6"</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C54" t="str">
-        <v>6"x3"x6"</v>
+        <v>U.N</v>
       </c>
       <c r="D54" t="str">
-        <v>TEE RED, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E54">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="F54" t="str">
+        <v>4"x2"</v>
       </c>
     </row>
     <row r="55">
@@ -1303,10 +1489,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C55" t="str">
-        <v>4"x2"</v>
+        <v>U.N</v>
       </c>
       <c r="D55" t="str">
         <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
@@ -1314,158 +1500,188 @@
       <c r="E55">
         <v>21</v>
       </c>
+      <c r="F55" t="str">
+        <v>4"x3"</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C56" t="str">
-        <v>4"x3"</v>
+        <v>U.N</v>
       </c>
       <c r="D56" t="str">
         <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E56">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="F56" t="str">
+        <v>4"x3"x4"</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B57" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C57" t="str">
-        <v>4"x3"x4"</v>
+        <v>U.N</v>
       </c>
       <c r="D57" t="str">
-        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="F57" t="str">
+        <v>1"x1/2"</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C58" t="str">
-        <v>1 1/2"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D58" t="str">
         <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E58">
-        <v>1.35</v>
+        <v>2.12</v>
+      </c>
+      <c r="F58" t="str">
+        <v>1"x1/2"x1"</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B59" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C59" t="str">
-        <v>1 1/2"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D59" t="str">
         <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E59">
-        <v>9.45</v>
+        <v>1.35</v>
+      </c>
+      <c r="F59" t="str">
+        <v>1 1/2"x1"</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B60" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C60" t="str">
-        <v>1 1/2"x1/2"x1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D60" t="str">
         <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E60">
-        <v>4.050000000000001</v>
+        <v>9.45</v>
+      </c>
+      <c r="F60" t="str">
+        <v>1 1/2"x1/2"</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C61" t="str">
-        <v>1 1/2"x3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D61" t="str">
         <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E61">
-        <v>2.7</v>
+        <v>4.050000000000001</v>
+      </c>
+      <c r="F61" t="str">
+        <v>1 1/2"x1/2"x1 1/2"</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C62" t="str">
-        <v>1 1/2"x3/4"x1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D62" t="str">
         <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E62">
-        <v>1.35</v>
+        <v>2.7</v>
+      </c>
+      <c r="F62" t="str">
+        <v>1 1/2"x3/4"</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B63" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C63" t="str">
-        <v>1"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D63" t="str">
         <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E63">
-        <v>2.6500000000000004</v>
+        <v>1.35</v>
+      </c>
+      <c r="F63" t="str">
+        <v>1 1/2"x3/4"x1 1/2"</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C64" t="str">
-        <v>1"x1/2"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D64" t="str">
-        <v>TEE RED, SW, 3000#, B16.11, A105</v>
+        <v>TEE, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E64">
-        <v>2.12</v>
+        <v>0.78</v>
+      </c>
+      <c r="F64" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="65">
@@ -1473,16 +1689,19 @@
         <v>2</v>
       </c>
       <c r="B65" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C65" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D65" t="str">
         <v>TEE, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E65">
         <v>1.34</v>
+      </c>
+      <c r="F65" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="66">
@@ -1490,118 +1709,139 @@
         <v>3</v>
       </c>
       <c r="B66" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C66" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D66" t="str">
-        <v>TEE, 3000#, NPT, B16.11, A-105</v>
+        <v>TEE, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E66">
-        <v>0.78</v>
+        <v>46.589999999999996</v>
+      </c>
+      <c r="F66" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B67" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C67" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D67" t="str">
+        <v>TEE, BE, SCH 80, B16.9, A234 WPB</v>
+      </c>
+      <c r="E67">
+        <v>109.71999999999998</v>
+      </c>
+      <c r="F67" t="str">
         <v>4"</v>
-      </c>
-      <c r="D67" t="str">
-        <v>TEE, BE, SCH 160, B16.9, A234 WPB</v>
-      </c>
-      <c r="E67">
-        <v>31.06</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B68" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C68" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D68" t="str">
-        <v>TEE, BE, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E68">
-        <v>118.15999999999998</v>
+        <v>9.399999999999999</v>
+      </c>
+      <c r="F68" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C69" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D69" t="str">
         <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E69">
-        <v>9.399999999999999</v>
+        <v>22.919999999999998</v>
+      </c>
+      <c r="F69" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C70" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D70" t="str">
         <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E70">
-        <v>22.919999999999998</v>
+        <v>49.44</v>
+      </c>
+      <c r="F70" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C71" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D71" t="str">
-        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE, SW, 3000 #, B16.11, A105</v>
       </c>
       <c r="E71">
-        <v>49.44</v>
+        <v>0</v>
+      </c>
+      <c r="F71" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B72" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C72" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D72" t="str">
         <v>TEE, SW, 3000 #, B16.11, A105</v>
       </c>
       <c r="E72">
         <v>0</v>
+      </c>
+      <c r="F72" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="73">
@@ -1609,10 +1849,10 @@
         <v>2</v>
       </c>
       <c r="B73" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C73" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D73" t="str">
         <v>TEE, SW, 3000 #, B16.11, A105</v>
@@ -1620,22 +1860,28 @@
       <c r="E73">
         <v>0</v>
       </c>
+      <c r="F73" t="str">
+        <v>1 1/2"</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C74" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D74" t="str">
-        <v>TEE, SW, 3000 #, B16.11, A105</v>
+        <v>TEE, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E74">
         <v>0</v>
+      </c>
+      <c r="F74" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="75">
@@ -1643,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="B75" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C75" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D75" t="str">
         <v>TEE, SW, 3000#, B16.11, A105</v>
@@ -1654,22 +1900,28 @@
       <c r="E75">
         <v>0</v>
       </c>
+      <c r="F75" t="str">
+        <v>1 1/2"</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C76" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D76" t="str">
-        <v>TEE, SW, 3000#, B16.11, A105</v>
+        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1.68</v>
+      </c>
+      <c r="F76" t="str">
+        <v>1"x1/2"</v>
       </c>
     </row>
     <row r="77">
@@ -1677,10 +1929,10 @@
         <v>2</v>
       </c>
       <c r="B77" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C77" t="str">
-        <v>1 1/2"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D77" t="str">
         <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
@@ -1688,220 +1940,259 @@
       <c r="E77">
         <v>1.2</v>
       </c>
+      <c r="F77" t="str">
+        <v>1 1/2"x1"</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B78" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C78" t="str">
-        <v>1"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D78" t="str">
-        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E78">
-        <v>1.68</v>
+        <v>4.2</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2"x1 1/2"</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B79" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C79" t="str">
-        <v>2"x1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D79" t="str">
         <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E79">
-        <v>4.2</v>
+        <v>2.52</v>
+      </c>
+      <c r="F79" t="str">
+        <v>2"x1"</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C80" t="str">
-        <v>2"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D80" t="str">
         <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E80">
-        <v>2.52</v>
+        <v>3.78</v>
+      </c>
+      <c r="F80" t="str">
+        <v>3"x2 1/2"</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B81" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C81" t="str">
-        <v>3"x2 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D81" t="str">
-        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
+        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E81">
-        <v>3.78</v>
+        <v>5</v>
+      </c>
+      <c r="F81" t="str">
+        <v>3"x2"</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C82" t="str">
-        <v>3"x2"</v>
+        <v>U.N</v>
       </c>
       <c r="D82" t="str">
         <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>6.4</v>
+      </c>
+      <c r="F82" t="str">
+        <v>4"x3"</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B83" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C83" t="str">
-        <v>4"x3"</v>
+        <v>U.N</v>
       </c>
       <c r="D83" t="str">
-        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E83">
-        <v>6.4</v>
+        <v>2.72</v>
+      </c>
+      <c r="F83" t="str">
+        <v>3"x2"</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C84" t="str">
-        <v>3"x2"</v>
+        <v>U.N</v>
       </c>
       <c r="D84" t="str">
         <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E84">
-        <v>2.72</v>
+        <v>2.27</v>
+      </c>
+      <c r="F84" t="str">
+        <v>4"x2"</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B85" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C85" t="str">
-        <v>4"x2"</v>
+        <v>U.N</v>
       </c>
       <c r="D85" t="str">
         <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E85">
-        <v>2.27</v>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="F85" t="str">
+        <v>4"x3"</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C86" t="str">
-        <v>4"x3"</v>
+        <v>U.N</v>
       </c>
       <c r="D86" t="str">
         <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E86">
-        <v>6.8100000000000005</v>
+        <v>23.8</v>
+      </c>
+      <c r="F86" t="str">
+        <v>6"x4"</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B87" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C87" t="str">
-        <v>6"x4"</v>
+        <v>U.N</v>
       </c>
       <c r="D87" t="str">
         <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E87">
-        <v>23.8</v>
+        <v>9.86</v>
+      </c>
+      <c r="F87" t="str">
+        <v>8"x4"</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C88" t="str">
-        <v>8"x4"</v>
+        <v>U.N</v>
       </c>
       <c r="D88" t="str">
-        <v>RED CONC, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>RED ECC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E88">
-        <v>9.86</v>
+        <v>0</v>
+      </c>
+      <c r="F88" t="str">
+        <v>3"x1 1/2"</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C89" t="str">
-        <v>3"x1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D89" t="str">
-        <v>RED ECC, BW, SCH 40, B16.9, A234 WPB</v>
+        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
       </c>
       <c r="E89">
         <v>0</v>
+      </c>
+      <c r="F89" t="str">
+        <v>6"x1"</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C90" t="str">
-        <v>6"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D90" t="str">
         <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
@@ -1909,22 +2200,28 @@
       <c r="E90">
         <v>0</v>
       </c>
+      <c r="F90" t="str">
+        <v>6"x3"</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C91" t="str">
-        <v>6"x3"</v>
+        <v>U.N</v>
       </c>
       <c r="D91" t="str">
         <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
       </c>
       <c r="E91">
         <v>0</v>
+      </c>
+      <c r="F91" t="str">
+        <v>6"x4"</v>
       </c>
     </row>
     <row r="92">
@@ -1932,50 +2229,59 @@
         <v>1</v>
       </c>
       <c r="B92" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C92" t="str">
-        <v>6"x4"</v>
+        <v>U.N</v>
       </c>
       <c r="D92" t="str">
-        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
+        <v>LATROLET, SW, 3000#</v>
       </c>
       <c r="E92">
         <v>0</v>
+      </c>
+      <c r="F92" t="str">
+        <v>6"x1/2"</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B93" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C93" t="str">
-        <v>6"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D93" t="str">
-        <v>LATROLET, SW, 3000#</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1.35</v>
+      </c>
+      <c r="F93" t="str">
+        <v>2"x1"</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C94" t="str">
-        <v>2"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D94" t="str">
         <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E94">
-        <v>1.35</v>
+        <v>0.6</v>
+      </c>
+      <c r="F94" t="str">
+        <v>2"x1/2"</v>
       </c>
     </row>
     <row r="95">
@@ -1983,10 +2289,10 @@
         <v>4</v>
       </c>
       <c r="B95" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C95" t="str">
-        <v>2"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D95" t="str">
         <v>SOCKOLET, #3000, B16.11, A105</v>
@@ -1994,90 +2300,108 @@
       <c r="E95">
         <v>0.6</v>
       </c>
+      <c r="F95" t="str">
+        <v>3"x1/2"</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B96" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C96" t="str">
-        <v>3"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D96" t="str">
         <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E96">
-        <v>0.6</v>
+        <v>0.27</v>
+      </c>
+      <c r="F96" t="str">
+        <v>4"x1"</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B97" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C97" t="str">
-        <v>4"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D97" t="str">
         <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E97">
-        <v>0.27</v>
+        <v>0.9</v>
+      </c>
+      <c r="F97" t="str">
+        <v>4"x1/2"</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B98" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C98" t="str">
-        <v>4"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D98" t="str">
         <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E98">
-        <v>1.05</v>
+        <v>0.27</v>
+      </c>
+      <c r="F98" t="str">
+        <v>6"x1"</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C99" t="str">
-        <v>6"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D99" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>SOCKOLET, #6000, B16.11, A105</v>
       </c>
       <c r="E99">
-        <v>0.27</v>
+        <v>0.94</v>
+      </c>
+      <c r="F99" t="str">
+        <v>4"x1 1/2"</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C100" t="str">
-        <v>4"x1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D100" t="str">
         <v>SOCKOLET, #6000, B16.11, A105</v>
       </c>
       <c r="E100">
-        <v>0.94</v>
+        <v>0.27</v>
+      </c>
+      <c r="F100" t="str">
+        <v>4"x1"</v>
       </c>
     </row>
     <row r="101">
@@ -2085,16 +2409,19 @@
         <v>1</v>
       </c>
       <c r="B101" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C101" t="str">
-        <v>4"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D101" t="str">
         <v>SOCKOLET, #6000, B16.11, A105</v>
       </c>
       <c r="E101">
-        <v>0.27</v>
+        <v>0.15</v>
+      </c>
+      <c r="F101" t="str">
+        <v>4"x1/2"</v>
       </c>
     </row>
     <row r="102">
@@ -2102,16 +2429,19 @@
         <v>1</v>
       </c>
       <c r="B102" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C102" t="str">
-        <v>4"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D102" t="str">
-        <v>SOCKOLET, #6000, B16.11, A105</v>
+        <v>SOCKOLET, #9000, B16.11, A105</v>
       </c>
       <c r="E102">
-        <v>0.15</v>
+        <v>0</v>
+      </c>
+      <c r="F102" t="str">
+        <v>4"x3/4"</v>
       </c>
     </row>
     <row r="103">
@@ -2119,16 +2449,19 @@
         <v>4</v>
       </c>
       <c r="B103" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C103" t="str">
-        <v>2"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D103" t="str">
         <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E103">
         <v>0.44</v>
+      </c>
+      <c r="F103" t="str">
+        <v>2"x1/2"</v>
       </c>
     </row>
     <row r="104">
@@ -2136,16 +2469,19 @@
         <v>3</v>
       </c>
       <c r="B104" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C104" t="str">
-        <v>3"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D104" t="str">
         <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E104">
         <v>0.33</v>
+      </c>
+      <c r="F104" t="str">
+        <v>3"x1/2"</v>
       </c>
     </row>
     <row r="105">
@@ -2153,10 +2489,10 @@
         <v>3</v>
       </c>
       <c r="B105" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C105" t="str">
-        <v>3"x3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D105" t="str">
         <v>THREADOLET, 3000#, MSS SP-97</v>
@@ -2164,277 +2500,328 @@
       <c r="E105">
         <v>0.48</v>
       </c>
+      <c r="F105" t="str">
+        <v>3"x3/4"</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B106" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C106" t="str">
-        <v>4"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D106" t="str">
         <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E106">
-        <v>1.1</v>
+        <v>0.9</v>
+      </c>
+      <c r="F106" t="str">
+        <v>4"x1 1/2"</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B107" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C107" t="str">
-        <v>4"x2"</v>
+        <v>U.N</v>
       </c>
       <c r="D107" t="str">
         <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E107">
-        <v>3.95</v>
+        <v>0.56</v>
+      </c>
+      <c r="F107" t="str">
+        <v>4"x1"</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B108" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C108" t="str">
-        <v>4"x3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D108" t="str">
         <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E108">
-        <v>1.28</v>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="F108" t="str">
+        <v>4"x1/2"</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B109" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C109" t="str">
-        <v>6"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D109" t="str">
         <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E109">
-        <v>0.8400000000000001</v>
+        <v>3.95</v>
+      </c>
+      <c r="F109" t="str">
+        <v>4"x2"</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B110" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C110" t="str">
-        <v>6"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D110" t="str">
         <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E110">
-        <v>0.11</v>
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="F110" t="str">
+        <v>4"x3/4"</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B111" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C111" t="str">
-        <v>6"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D111" t="str">
-        <v>THREADOLET, 3000#, NPT, MSS-SP-97, A-105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E111">
-        <v>0.1</v>
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="F111" t="str">
+        <v>6"x1"</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B112" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C112" t="str">
-        <v>3"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D112" t="str">
-        <v>THREADOLET, 6000#, MSS SP-97</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E112">
-        <v>0.44</v>
+        <v>0.11</v>
+      </c>
+      <c r="F112" t="str">
+        <v>6"x1/2"</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B113" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C113" t="str">
-        <v>4"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D113" t="str">
-        <v>THREADOLET, 6000#, MSS SP-97</v>
+        <v>THREADOLET, 3000#, NPT, MSS-SP-97, A-105</v>
       </c>
       <c r="E113">
-        <v>0.44</v>
+        <v>0.1</v>
+      </c>
+      <c r="F113" t="str">
+        <v>6"x1/2"</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B114" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C114" t="str">
-        <v>4"x3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D114" t="str">
         <v>THREADOLET, 6000#, MSS SP-97</v>
       </c>
       <c r="E114">
-        <v>0.16</v>
+        <v>0.44</v>
+      </c>
+      <c r="F114" t="str">
+        <v>3"x1/2"</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B115" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C115" t="str">
-        <v>8"x3"</v>
+        <v>U.N</v>
       </c>
       <c r="D115" t="str">
-        <v>WELDOLET, BW, 80, MSS-SP-97, A105</v>
+        <v>THREADOLET, 6000#, MSS SP-97</v>
       </c>
       <c r="E115">
-        <v>1.86</v>
+        <v>0.44</v>
+      </c>
+      <c r="F115" t="str">
+        <v>4"x1/2"</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C116" t="str">
-        <v>4"x2"</v>
+        <v>U.N</v>
       </c>
       <c r="D116" t="str">
-        <v>WELDOLET, BW, SCH 40, MSS-SP-97, A105</v>
+        <v>THREADOLET, 6000#, MSS SP-97</v>
       </c>
       <c r="E116">
-        <v>1.58</v>
+        <v>0.16</v>
+      </c>
+      <c r="F116" t="str">
+        <v>4"x3/4"</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B117" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C117" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D117" t="str">
-        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
+        <v>WELDOLET, BW, 80, MSS-SP-97, A105</v>
       </c>
       <c r="E117">
-        <v>5.520000000000003</v>
+        <v>1.86</v>
+      </c>
+      <c r="F117" t="str">
+        <v>8"x3"</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B118" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C118" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D118" t="str">
-        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
+        <v>WELDOLET, BW, SCH 40, MSS-SP-97, A105</v>
       </c>
       <c r="E118">
-        <v>3.68</v>
+        <v>1.58</v>
+      </c>
+      <c r="F118" t="str">
+        <v>4"x2"</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B119" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C119" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D119" t="str">
+        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
+      </c>
+      <c r="E119">
+        <v>6.0000000000000036</v>
+      </c>
+      <c r="F119" t="str">
         <v>1/2"</v>
-      </c>
-      <c r="D119" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
-      </c>
-      <c r="E119">
-        <v>2.45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B120" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C120" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D120" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
       </c>
       <c r="E120">
-        <v>3.3</v>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="F120" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B121" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C121" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D121" t="str">
         <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E121">
-        <v>11.7</v>
+        <v>2.45</v>
+      </c>
+      <c r="F121" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="122">
@@ -2442,101 +2829,119 @@
         <v>6</v>
       </c>
       <c r="B122" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C122" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D122" t="str">
         <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E122">
-        <v>9.6</v>
+        <v>3.3</v>
+      </c>
+      <c r="F122" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B123" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C123" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D123" t="str">
         <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>11.7</v>
+      </c>
+      <c r="F123" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B124" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C124" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D124" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E124">
-        <v>6.999999999999997</v>
+        <v>9.6</v>
+      </c>
+      <c r="F124" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B125" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C125" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D125" t="str">
-        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E125">
-        <v>5.499999999999999</v>
+        <v>9</v>
+      </c>
+      <c r="F125" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B126" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C126" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D126" t="str">
         <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E126">
-        <v>0.78</v>
+        <v>6.999999999999997</v>
+      </c>
+      <c r="F126" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B127" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C127" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D127" t="str">
         <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E127">
-        <v>6.4</v>
+        <v>5.499999999999999</v>
+      </c>
+      <c r="F127" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="128">
@@ -2544,33 +2949,39 @@
         <v>1</v>
       </c>
       <c r="B128" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C128" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D128" t="str">
-        <v>UNION, SW, 6000#, MSS-SP-83, A105</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E128">
-        <v>0.35</v>
+        <v>0.78</v>
+      </c>
+      <c r="F128" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B129" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C129" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D129" t="str">
-        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>UNION, SW, 3000#, MSS-SP-83, A105</v>
       </c>
       <c r="E129">
-        <v>3.2</v>
+        <v>6.4</v>
+      </c>
+      <c r="F129" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="130">
@@ -2578,16 +2989,19 @@
         <v>1</v>
       </c>
       <c r="B130" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C130" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D130" t="str">
-        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>UNION, SW, 6000#, MSS-SP-83, A105</v>
       </c>
       <c r="E130">
-        <v>3.6</v>
+        <v>0.35</v>
+      </c>
+      <c r="F130" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="131">
@@ -2595,84 +3009,99 @@
         <v>2</v>
       </c>
       <c r="B131" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C131" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D131" t="str">
+        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
+      </c>
+      <c r="E131">
+        <v>3.2</v>
+      </c>
+      <c r="F131" t="str">
         <v>4"</v>
-      </c>
-      <c r="D131" t="str">
-        <v>CAP, BW, SCH XS, B16.9, A234 WPB</v>
-      </c>
-      <c r="E131">
-        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C132" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D132" t="str">
-        <v>CAP, SW, 3000#, B16.11, A105</v>
+        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>3.6</v>
+      </c>
+      <c r="F132" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B133" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C133" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D133" t="str">
-        <v>CAP, SW, 3000#, B16.11, A105</v>
+        <v>CAP, BW, SCH XS, B16.9, A234 WPB</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F133" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B134" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C134" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D134" t="str">
-        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
+        <v>CAP, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E134">
         <v>0</v>
+      </c>
+      <c r="F134" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B135" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C135" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D135" t="str">
-        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
+        <v>CAP, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E135">
         <v>0</v>
+      </c>
+      <c r="F135" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="136">
@@ -2680,288 +3109,339 @@
         <v>2</v>
       </c>
       <c r="B136" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C136" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D136" t="str">
-        <v>CONTROL VALVE, GLOBE, LONG PATTERN, 900 LB, RTJ, ISA 75.08.06</v>
+        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
       </c>
       <c r="E136">
         <v>0</v>
+      </c>
+      <c r="F136" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B137" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C137" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D137" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
       </c>
       <c r="E137">
         <v>0</v>
+      </c>
+      <c r="F137" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C138" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D138" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+        <v>CONTROL VALVE, GLOBE, LONG PATTERN, 1500 LB, RTJ, ISA 75.08.06</v>
       </c>
       <c r="E138">
         <v>0</v>
+      </c>
+      <c r="F138" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B139" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C139" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D139" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+        <v>CONTROL VALVE, GLOBE, LONG PATTERN, 900 LB, RTJ, ISA 75.08.06</v>
       </c>
       <c r="E139">
         <v>0</v>
+      </c>
+      <c r="F139" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B140" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C140" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D140" t="str">
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140" t="str">
         <v>1/2"</v>
-      </c>
-      <c r="D140" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 600 LB, FPT, ISA S75.12</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B141" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C141" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D141" t="str">
-        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E141">
-        <v>3.220000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="F141" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B142" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C142" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D142" t="str">
-        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E142">
-        <v>0.84</v>
+        <v>0</v>
+      </c>
+      <c r="F142" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B143" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C143" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D143" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 600 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E143">
-        <v>13.759999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="F143" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B144" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C144" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D144" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
       </c>
       <c r="E144">
-        <v>4.419999999999999</v>
+        <v>3.220000000000002</v>
+      </c>
+      <c r="F144" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B145" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C145" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D145" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
       </c>
       <c r="E145">
-        <v>0.39</v>
+        <v>0.84</v>
+      </c>
+      <c r="F145" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B146" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C146" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D146" t="str">
         <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E146">
-        <v>9.310000000000006</v>
+        <v>0.39</v>
+      </c>
+      <c r="F146" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B147" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C147" t="str">
-        <v>1"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D147" t="str">
-        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E147">
-        <v>0.44999999999999996</v>
+        <v>9.310000000000002</v>
+      </c>
+      <c r="F147" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B148" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C148" t="str">
-        <v>1"x3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D148" t="str">
-        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E148">
-        <v>0.75</v>
+        <v>4.419999999999999</v>
+      </c>
+      <c r="F148" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B149" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C149" t="str">
-        <v>2"x1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D149" t="str">
-        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E149">
-        <v>1.2</v>
+        <v>13.759999999999998</v>
+      </c>
+      <c r="F149" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C150" t="str">
-        <v>2"x1"</v>
+        <v>U.N</v>
       </c>
       <c r="D150" t="str">
         <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E150">
-        <v>1.2</v>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F150" t="str">
+        <v>1"x1/2"</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B151" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C151" t="str">
-        <v>2"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D151" t="str">
         <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E151">
-        <v>4.2</v>
+        <v>0.75</v>
+      </c>
+      <c r="F151" t="str">
+        <v>1"x3/4"</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B152" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C152" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D152" t="str">
-        <v>LATERAL 45�, BW, B16.9</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1.2</v>
+      </c>
+      <c r="F152" t="str">
+        <v>2"x1 1/2"</v>
       </c>
     </row>
     <row r="153">
@@ -2969,33 +3449,39 @@
         <v>2</v>
       </c>
       <c r="B153" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C153" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D153" t="str">
-        <v>ORIFICE PLATE, # 150, RF, ASME B16.48</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E153">
-        <v>0.54</v>
+        <v>1.2</v>
+      </c>
+      <c r="F153" t="str">
+        <v>2"x1"</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B154" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C154" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D154" t="str">
-        <v>ORIFICE PLATE, 600 LB, RF, ASME B16.48</v>
+        <v>HEX HEAD BUSHING, 3000#, B16.11, A105</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>4.2</v>
+      </c>
+      <c r="F154" t="str">
+        <v>2"x1/2"</v>
       </c>
     </row>
     <row r="155">
@@ -3003,33 +3489,39 @@
         <v>1</v>
       </c>
       <c r="B155" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C155" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D155" t="str">
-        <v>ORIFICE PLATE, 900 LB, RTJ, ASME B16.48</v>
+        <v>LATERAL 45�, BW, B16.9</v>
       </c>
       <c r="E155">
         <v>0</v>
+      </c>
+      <c r="F155" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C156" t="str">
-        <v>4"x1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D156" t="str">
-        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
+        <v>ORIFICE PLATE, # 150, RF, ASME B16.48</v>
       </c>
       <c r="E156">
-        <v>22</v>
+        <v>0.54</v>
+      </c>
+      <c r="F156" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="157">
@@ -3037,16 +3529,19 @@
         <v>1</v>
       </c>
       <c r="B157" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C157" t="str">
-        <v>4"x1/2"x4"</v>
+        <v>U.N</v>
       </c>
       <c r="D157" t="str">
-        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
+        <v>ORIFICE PLATE, 600 LB, RF, ASME B16.48</v>
       </c>
       <c r="E157">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="F157" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="158">
@@ -3054,1274 +3549,1421 @@
         <v>1</v>
       </c>
       <c r="B158" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C158" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D158" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>ORIFICE PLATE, 900 LB, RTJ, ASME B16.48</v>
       </c>
       <c r="E158">
-        <v>0.57</v>
+        <v>0</v>
+      </c>
+      <c r="F158" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B159" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C159" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D159" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
       </c>
       <c r="E159">
-        <v>0.63</v>
+        <v>22</v>
+      </c>
+      <c r="F159" t="str">
+        <v>4"x1/2"</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B160" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C160" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D160" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
       </c>
       <c r="E160">
-        <v>2.52</v>
+        <v>22</v>
+      </c>
+      <c r="F160" t="str">
+        <v>4"x1/2"x4"</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B161" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C161" t="str">
-        <v>2"x3"</v>
+        <v>U.N</v>
       </c>
       <c r="D161" t="str">
-        <v>PRESSURE RELIEF VALVE, PILOT OPERATED, G, RF, API 526</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E161">
-        <v>26.76</v>
+        <v>2.45</v>
+      </c>
+      <c r="F161" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B162" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C162" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D162" t="str">
-        <v>Y-TYPE STRAINER, RF, #150, B16.10, A216 GR WCB</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E162">
-        <v>60</v>
+        <v>0.63</v>
+      </c>
+      <c r="F162" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C163" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D163" t="str">
-        <v>Y-TYPE STRAINER, SW, 3000#, B16.10, A216 GR WCB</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E163">
-        <v>1.1</v>
+        <v>0.57</v>
+      </c>
+      <c r="F163" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B164" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C164" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D164" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>PRESSURE RELIEF VALVE, PILOT OPERATED, G, RF, API 526</v>
       </c>
       <c r="E164">
-        <v>18.4</v>
+        <v>26.76</v>
+      </c>
+      <c r="F164" t="str">
+        <v>2"x3"</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B165" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C165" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D165" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>Y-TYPE STRAINER, RF, #150, B16.10, A216 GR WCB</v>
       </c>
       <c r="E165">
-        <v>205.69999999999996</v>
+        <v>60</v>
+      </c>
+      <c r="F165" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B166" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C166" t="str">
-        <v>8"</v>
+        <v>U.N</v>
       </c>
       <c r="D166" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>Y-TYPE STRAINER, SW, 3000#, B16.10, A216 GR WCB</v>
       </c>
       <c r="E166">
-        <v>64</v>
+        <v>1.1</v>
+      </c>
+      <c r="F166" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B167" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C167" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D167" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>FLANGE BLIND, #150, RF, B16.5, A-105</v>
       </c>
       <c r="E167">
-        <v>12.600000000000001</v>
+        <v>30.8</v>
+      </c>
+      <c r="F167" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B168" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C168" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D168" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
       </c>
       <c r="E168">
-        <v>6.8999999999999995</v>
+        <v>18.4</v>
+      </c>
+      <c r="F168" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B169" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C169" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D169" t="str">
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+      </c>
+      <c r="E169">
+        <v>205.69999999999996</v>
+      </c>
+      <c r="F169" t="str">
         <v>4"</v>
-      </c>
-      <c r="D169" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
-      </c>
-      <c r="E169">
-        <v>16.4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C170" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D170" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
       </c>
       <c r="E170">
-        <v>23.6</v>
+        <v>64</v>
+      </c>
+      <c r="F170" t="str">
+        <v>8"</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B171" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C171" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D171" t="str">
-        <v>FLANGE BLIND, RTJ, #900, B16.5, A105</v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E171">
-        <v>98</v>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="F171" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B172" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C172" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D172" t="str">
-        <v>FLANGE SW, #150, RF, B16.5, A105</v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E172">
-        <v>1.8</v>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="F172" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B173" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C173" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D173" t="str">
-        <v>FLANGE SW, #150, RF, B16.5, A105</v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E173">
-        <v>2.8</v>
+        <v>16.4</v>
+      </c>
+      <c r="F173" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B174" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C174" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D174" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E174">
-        <v>61.199999999999974</v>
+        <v>23.6</v>
+      </c>
+      <c r="F174" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B175" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C175" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D175" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>FLANGE BLIND, RTJ, #900, B16.5, A105</v>
       </c>
       <c r="E175">
-        <v>109.33999999999999</v>
+        <v>98</v>
+      </c>
+      <c r="F175" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B176" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C176" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D176" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>FLANGE SW, #150, RF, B16.5, A105</v>
       </c>
       <c r="E176">
-        <v>28.48</v>
+        <v>1.8</v>
+      </c>
+      <c r="F176" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B177" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C177" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D177" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>FLANGE SW, #150, RF, B16.5, A105</v>
       </c>
       <c r="E177">
-        <v>141.82999999999998</v>
+        <v>2.8</v>
+      </c>
+      <c r="F177" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B178" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C178" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D178" t="str">
-        <v>FLANGE WN, #150, RF, SCH STD, B16.5, A105</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E178">
-        <v>14.24</v>
+        <v>50.999999999999986</v>
+      </c>
+      <c r="F178" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B179" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C179" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D179" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E179">
-        <v>36</v>
+        <v>109.33999999999999</v>
+      </c>
+      <c r="F179" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B180" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C180" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D180" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E180">
-        <v>126</v>
+        <v>28.48</v>
+      </c>
+      <c r="F180" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B181" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C181" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D181" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E181">
-        <v>981.2400000000001</v>
+        <v>141.82999999999998</v>
+      </c>
+      <c r="F181" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B182" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C182" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D182" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>FLANGE WN, #150, RF, SCH STD, B16.5, A105</v>
       </c>
       <c r="E182">
-        <v>152.84</v>
+        <v>14.24</v>
+      </c>
+      <c r="F182" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B183" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C183" t="str">
-        <v>8"</v>
+        <v>U.N</v>
       </c>
       <c r="D183" t="str">
         <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E183">
-        <v>60.96</v>
+        <v>36</v>
+      </c>
+      <c r="F183" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B184" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C184" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D184" t="str">
-        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E184">
-        <v>43.2</v>
+        <v>126</v>
+      </c>
+      <c r="F184" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B185" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C185" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D185" t="str">
-        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E185">
-        <v>105.84000000000002</v>
+        <v>962.3700000000001</v>
+      </c>
+      <c r="F185" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B186" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C186" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D186" t="str">
-        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E186">
-        <v>173.76</v>
+        <v>152.84</v>
+      </c>
+      <c r="F186" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B187" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C187" t="str">
-        <v>1/2" x 70</v>
+        <v>U.N</v>
       </c>
       <c r="D187" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E187">
-        <v>1.04</v>
+        <v>60.96</v>
+      </c>
+      <c r="F187" t="str">
+        <v>8"</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B188" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C188" t="str">
-        <v>1/2" x 64</v>
+        <v>U.N</v>
       </c>
       <c r="D188" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, RTJ, #1500 LB, B16.5, A352 GR. LCC</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>22.76</v>
+      </c>
+      <c r="F188" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="B189" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C189" t="str">
-        <v>5/8" x 83</v>
+        <v>U.N</v>
       </c>
       <c r="D189" t="str">
-        <v>STUD BOLT, A193-B7/A194-2H/F436</v>
+        <v>FLANGE WN, RTJ, #1500 LB, B16.5, A352 GR. LCC</v>
       </c>
       <c r="E189">
-        <v>72.4</v>
+        <v>156.9</v>
+      </c>
+      <c r="F189" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="B190" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C190" t="str">
-        <v>3/4" x 127</v>
+        <v>U.N</v>
       </c>
       <c r="D190" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
       </c>
       <c r="E190">
-        <v>94.90999999999995</v>
+        <v>43.2</v>
+      </c>
+      <c r="F190" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="B191" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C191" t="str">
-        <v>7/8" x 146</v>
+        <v>U.N</v>
       </c>
       <c r="D191" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
       </c>
       <c r="E191">
-        <v>427.98999999999927</v>
+        <v>105.84000000000002</v>
+      </c>
+      <c r="F191" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="B192" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C192" t="str">
-        <v>1" x 171</v>
+        <v>U.N</v>
       </c>
       <c r="D192" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
       </c>
       <c r="E192">
-        <v>98.16999999999999</v>
+        <v>173.76</v>
+      </c>
+      <c r="F192" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>24</v>
-      </c>
-      <c r="B193" t="str">
-        <v>U.N</v>
+        <v>8</v>
       </c>
       <c r="C193" t="str">
-        <v>1 1/8" x 191</v>
+        <v>U.N</v>
       </c>
       <c r="D193" t="str">
         <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E193">
-        <v>34.88</v>
+        <v>1.04</v>
+      </c>
+      <c r="F193" t="str">
+        <v>1/2" x 70</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>2</v>
-      </c>
-      <c r="B194" t="str">
-        <v>U.N</v>
+        <v>8</v>
       </c>
       <c r="C194" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D194" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E194">
-        <v>0.08</v>
+        <v>1</v>
+      </c>
+      <c r="F194" t="str">
+        <v>1/2" x 64</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>2</v>
-      </c>
-      <c r="B195" t="str">
-        <v>U.N</v>
+        <v>256</v>
       </c>
       <c r="C195" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D195" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E195">
-        <v>0.12</v>
+        <v>77.52000000000002</v>
+      </c>
+      <c r="F195" t="str">
+        <v>7/8" x 146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>28</v>
-      </c>
-      <c r="B196" t="str">
-        <v>U.N</v>
+        <v>228</v>
       </c>
       <c r="C196" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D196" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E196">
-        <v>2.52</v>
+        <v>94.91000000000008</v>
+      </c>
+      <c r="F196" t="str">
+        <v>3/4" x 127</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>21</v>
-      </c>
-      <c r="B197" t="str">
-        <v>U.N</v>
+        <v>648</v>
       </c>
       <c r="C197" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D197" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>STUD BOLT, A193-B7/A194-2H/F436</v>
       </c>
       <c r="E197">
-        <v>2.9400000000000017</v>
+        <v>481.94999999999936</v>
+      </c>
+      <c r="F197" t="str">
+        <v>5/8" x 70</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>12</v>
-      </c>
-      <c r="B198" t="str">
-        <v>U.N</v>
+        <v>156</v>
       </c>
       <c r="C198" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D198" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E198">
-        <v>2.7600000000000002</v>
+        <v>98.16999999999997</v>
+      </c>
+      <c r="F198" t="str">
+        <v>3/4" x 102</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>12</v>
-      </c>
-      <c r="B199" t="str">
-        <v>U.N</v>
+        <v>24</v>
       </c>
       <c r="C199" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D199" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E199">
-        <v>3.599999999999999</v>
+        <v>34.88</v>
+      </c>
+      <c r="F199" t="str">
+        <v>1 1/8" x 191</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>4</v>
-      </c>
-      <c r="B200" t="str">
-        <v>U.N</v>
+        <v>2</v>
       </c>
       <c r="C200" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D200" t="str">
-        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0.08</v>
+      </c>
+      <c r="F200" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>8</v>
-      </c>
-      <c r="B201" t="str">
-        <v>U.N</v>
+        <v>2</v>
       </c>
       <c r="C201" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D201" t="str">
-        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E201">
-        <v>2.9600000000000004</v>
+        <v>0.12</v>
+      </c>
+      <c r="F201" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>12</v>
-      </c>
-      <c r="B202" t="str">
-        <v>U.N</v>
+        <v>24</v>
       </c>
       <c r="C202" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D202" t="str">
-        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E202">
-        <v>6.48</v>
+        <v>2.1600000000000006</v>
+      </c>
+      <c r="F202" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>2</v>
-      </c>
-      <c r="B203" t="str">
-        <v>U.N</v>
+        <v>21</v>
       </c>
       <c r="C203" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D203" t="str">
-        <v>GASKET, SWG, 1/8" THK, RF, #150, B16.20</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E203">
-        <v>0.2</v>
+        <v>2.9400000000000017</v>
+      </c>
+      <c r="F203" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204" t="str">
-        <v>U.N</v>
+        <v>12</v>
       </c>
       <c r="C204" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D204" t="str">
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+      </c>
+      <c r="E204">
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="F204" t="str">
         <v>4"</v>
-      </c>
-      <c r="D204" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #150, GRAPHITE </v>
-      </c>
-      <c r="E204">
-        <v>0.23</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>13</v>
-      </c>
-      <c r="B205" t="str">
-        <v>U.N</v>
+        <v>12</v>
       </c>
       <c r="C205" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D205" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E205">
-        <v>1.4300000000000004</v>
+        <v>3.599999999999999</v>
+      </c>
+      <c r="F205" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>10</v>
-      </c>
-      <c r="B206" t="str">
-        <v>U.N</v>
+        <v>2</v>
       </c>
       <c r="C206" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D206" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>GASKET, OVAL, RTJ, #1500, B16.20, SOFT IRON</v>
       </c>
       <c r="E206">
-        <v>1.8999999999999997</v>
+        <v>0.44</v>
+      </c>
+      <c r="F206" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>49</v>
-      </c>
-      <c r="B207" t="str">
-        <v>U.N</v>
+        <v>4</v>
       </c>
       <c r="C207" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D207" t="str">
+        <v>GASKET, OVAL, RTJ, #1500, B16.20, SOFT IRON</v>
+      </c>
+      <c r="E207">
+        <v>2.56</v>
+      </c>
+      <c r="F207" t="str">
         <v>4"</v>
-      </c>
-      <c r="D207" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
-      </c>
-      <c r="E207">
-        <v>15.680000000000009</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>5</v>
-      </c>
-      <c r="B208" t="str">
-        <v>U.N</v>
+        <v>4</v>
       </c>
       <c r="C208" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D208" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
       </c>
       <c r="E208">
-        <v>2.8499999999999996</v>
+        <v>0.88</v>
+      </c>
+      <c r="F208" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>2</v>
-      </c>
-      <c r="B209" t="str">
-        <v>U.N</v>
+        <v>8</v>
       </c>
       <c r="C209" t="str">
-        <v>8"</v>
+        <v>U.N</v>
       </c>
       <c r="D209" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
       </c>
       <c r="E209">
-        <v>1.48</v>
+        <v>2.9600000000000004</v>
+      </c>
+      <c r="F209" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>16</v>
-      </c>
-      <c r="B210" t="str">
-        <v>U.N</v>
+        <v>12</v>
       </c>
       <c r="C210" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D210" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>6.48</v>
+      </c>
+      <c r="F210" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>4</v>
-      </c>
-      <c r="B211" t="str">
-        <v>U.N</v>
+        <v>2</v>
       </c>
       <c r="C211" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D211" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>GASKET, SWG, 1/8" THK, RF, #150, B16.20</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="F211" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>5</v>
-      </c>
-      <c r="B212" t="str">
-        <v>U.N</v>
+        <v>4</v>
       </c>
       <c r="C212" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D212" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>GASKET, SWG, 1/8" THK, RF, #150, B16.20</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.96</v>
+      </c>
+      <c r="F212" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>10</v>
-      </c>
-      <c r="B213" t="str">
-        <v>U.N</v>
+        <v>1</v>
       </c>
       <c r="C213" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D213" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E213">
-        <v>150</v>
+        <v>0.23</v>
+      </c>
+      <c r="F213" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>5</v>
-      </c>
-      <c r="B214" t="str">
-        <v>U.N</v>
+        <v>13</v>
       </c>
       <c r="C214" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D214" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E214">
-        <v>125</v>
+        <v>1.4300000000000004</v>
+      </c>
+      <c r="F214" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>4</v>
-      </c>
-      <c r="B215" t="str">
-        <v>U.N</v>
+        <v>10</v>
       </c>
       <c r="C215" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D215" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E215">
-        <v>180</v>
+        <v>1.8999999999999997</v>
+      </c>
+      <c r="F215" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>3</v>
-      </c>
-      <c r="B216" t="str">
-        <v>U.N</v>
+        <v>47</v>
       </c>
       <c r="C216" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D216" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E216">
-        <v>231</v>
+        <v>15.040000000000008</v>
+      </c>
+      <c r="F216" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>4</v>
-      </c>
-      <c r="B217" t="str">
-        <v>U.N</v>
+        <v>5</v>
       </c>
       <c r="C217" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D217" t="str">
-        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E217">
-        <v>144</v>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="F217" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>7</v>
-      </c>
-      <c r="B218" t="str">
-        <v>U.N</v>
+        <v>2</v>
       </c>
       <c r="C218" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D218" t="str">
-        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E218">
-        <v>476</v>
+        <v>1.48</v>
+      </c>
+      <c r="F218" t="str">
+        <v>8"</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B219" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C219" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D219" t="str">
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219" t="str">
         <v>1/2"</v>
-      </c>
-      <c r="D219" t="str">
-        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
-      </c>
-      <c r="E219">
-        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B220" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C220" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D220" t="str">
-        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E220">
         <v>0</v>
+      </c>
+      <c r="F220" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B221" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C221" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D221" t="str">
-        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E221">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="F221" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B222" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C222" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D222" t="str">
-        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E222">
-        <v>344</v>
+        <v>90</v>
+      </c>
+      <c r="F222" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B223" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C223" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D223" t="str">
-        <v>CHECK VALVE SWING, RF, #600, B16.10, A216 GR WCB</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E223">
-        <v>366</v>
+        <v>125</v>
+      </c>
+      <c r="F223" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B224" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C224" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D224" t="str">
-        <v>CHECK VALVE, NPT, SPRING LOADED BALL B16.10, A105</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E224">
-        <v>2.8</v>
+        <v>180</v>
+      </c>
+      <c r="F224" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B225" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C225" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D225" t="str">
-        <v>CHECK VALVE, SPRING LOADED BALL, NPT, B16.10, A105</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E225">
-        <v>18.2</v>
+        <v>231</v>
+      </c>
+      <c r="F225" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B226" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C226" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D226" t="str">
-        <v>CHECK VALVE, SWING, RF, #150, B16.10, A216 GR WCB</v>
+        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
       </c>
       <c r="E226">
-        <v>38</v>
+        <v>144</v>
+      </c>
+      <c r="F226" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B227" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C227" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D227" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
       </c>
       <c r="E227">
-        <v>7.199999999999999</v>
+        <v>476</v>
+      </c>
+      <c r="F227" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B228" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C228" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D228" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
       </c>
       <c r="E228">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="F228" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B229" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C229" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D229" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
       </c>
       <c r="E229">
-        <v>19.52</v>
+        <v>0</v>
+      </c>
+      <c r="F229" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B230" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C230" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D230" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
       </c>
       <c r="E230">
-        <v>78.39999999999996</v>
+        <v>110</v>
+      </c>
+      <c r="F230" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B231" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C231" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D231" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
       </c>
       <c r="E231">
-        <v>76.5</v>
+        <v>344</v>
+      </c>
+      <c r="F231" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B232" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C232" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D232" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v>CHECK VALVE SWING, RF, #600, B16.10, A216 GR WCB</v>
       </c>
       <c r="E232">
-        <v>7</v>
+        <v>366</v>
+      </c>
+      <c r="F232" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="233">
@@ -4329,33 +4971,39 @@
         <v>2</v>
       </c>
       <c r="B233" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C233" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D233" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v>CHECK VALVE, NPT, SPRING LOADED BALL B16.10, A105</v>
       </c>
       <c r="E233">
-        <v>30</v>
+        <v>2.8</v>
+      </c>
+      <c r="F233" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B234" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C234" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D234" t="str">
-        <v>GLOBE VALVE, RF, 600#, B16.10, A216 GR WCB</v>
+        <v>CHECK VALVE, SPRING LOADED BALL, NPT, B16.10, A105</v>
       </c>
       <c r="E234">
-        <v>57</v>
+        <v>18.2</v>
+      </c>
+      <c r="F234" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="235">
@@ -4363,752 +5011,1268 @@
         <v>2</v>
       </c>
       <c r="B235" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C235" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D235" t="str">
+        <v>CHECK VALVE, SWING, RF, #150, B16.10, A216 GR WCB</v>
+      </c>
+      <c r="E235">
+        <v>38</v>
+      </c>
+      <c r="F235" t="str">
         <v>2"</v>
-      </c>
-      <c r="D235" t="str">
-        <v>GLOBE VALVE, RTJ, #900, B16.10, A216 GR WCB</v>
-      </c>
-      <c r="E235">
-        <v>174</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B236" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C236" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D236" t="str">
+        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+      </c>
+      <c r="E236">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="F236" t="str">
         <v>1/2"</v>
-      </c>
-      <c r="D236" t="str">
-        <v>GLOBE VALVE, SW, 1500#, A105</v>
-      </c>
-      <c r="E236">
-        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B237" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C237" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D237" t="str">
-        <v>NEEDLE VALVE, #3000, SS 316</v>
+        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="F237" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B238" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C238" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D238" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>75.59999999999997</v>
+      </c>
+      <c r="F238" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B239" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C239" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D239" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>76.5</v>
+      </c>
+      <c r="F239" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B240" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C240" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D240" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F240" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B241" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C241" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D241" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F241" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B242" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C242" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D242" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>GLOBE VALVE, RF, 600#, B16.10, A216 GR WCB</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="F242" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" t="str">
+        <v>-</v>
+      </c>
+      <c r="C243" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D243" t="str">
+        <v>GLOBE VALVE, RTJ #1500, B16.10, A216 WCP</v>
+      </c>
+      <c r="E243">
         <v>82</v>
       </c>
-      <c r="B243" t="str">
-        <v>U.N</v>
-      </c>
-      <c r="C243" t="str">
-        <v>3"</v>
-      </c>
-      <c r="D243" t="str">
-        <v>BUTTWELD  SCH 40</v>
-      </c>
-      <c r="E243">
-        <v>0</v>
+      <c r="F243" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B244" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C244" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D244" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>GLOBE VALVE, RTJ, #900, B16.10, A216 GR WCB</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="F244" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B245" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C245" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D245" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>GLOBE VALVE, SW, 1500#, A105</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F245" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B246" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C246" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D246" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>NEEDLE VALVE, #3000, SS 316</v>
       </c>
       <c r="E246">
         <v>0</v>
+      </c>
+      <c r="F246" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>51</v>
-      </c>
-      <c r="B247" t="str">
-        <v>U.N</v>
+        <v>4</v>
       </c>
       <c r="C247" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D247" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E247">
         <v>0</v>
+      </c>
+      <c r="F247" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>157</v>
-      </c>
-      <c r="B248" t="str">
-        <v>U.N</v>
+        <v>7</v>
       </c>
       <c r="C248" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D248" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E248">
         <v>0</v>
+      </c>
+      <c r="F248" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>5</v>
-      </c>
-      <c r="B249" t="str">
-        <v>U.N</v>
+        <v>37</v>
       </c>
       <c r="C249" t="str">
-        <v>6"</v>
+        <v>U.N</v>
       </c>
       <c r="D249" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E249">
         <v>0</v>
+      </c>
+      <c r="F249" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="B250" t="str">
-        <v>U.N</v>
+        <v>22</v>
       </c>
       <c r="C250" t="str">
-        <v>8"</v>
+        <v>U.N</v>
       </c>
       <c r="D250" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E250">
         <v>0</v>
+      </c>
+      <c r="F250" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>223</v>
-      </c>
-      <c r="B251" t="str">
-        <v>U.N</v>
+        <v>34</v>
       </c>
       <c r="C251" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D251" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E251">
         <v>0</v>
+      </c>
+      <c r="F251" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>287</v>
-      </c>
-      <c r="B252" t="str">
-        <v>U.N</v>
+        <v>82</v>
       </c>
       <c r="C252" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D252" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E252">
         <v>0</v>
+      </c>
+      <c r="F252" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>214</v>
-      </c>
-      <c r="B253" t="str">
-        <v>U.N</v>
+        <v>13</v>
       </c>
       <c r="C253" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D253" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E253">
         <v>0</v>
+      </c>
+      <c r="F253" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>156</v>
-      </c>
-      <c r="B254" t="str">
-        <v>U.N</v>
+        <v>54</v>
       </c>
       <c r="C254" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D254" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E254">
         <v>0</v>
+      </c>
+      <c r="F254" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>2</v>
-      </c>
-      <c r="B255" t="str">
-        <v>U.N</v>
+        <v>56</v>
       </c>
       <c r="C255" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D255" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E255">
         <v>0</v>
+      </c>
+      <c r="F255" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="B256" t="str">
-        <v>U.N</v>
+        <v>51</v>
       </c>
       <c r="C256" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D256" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E256">
         <v>0</v>
+      </c>
+      <c r="F256" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>2</v>
-      </c>
-      <c r="B257" t="str">
-        <v>U.N</v>
+        <v>154</v>
       </c>
       <c r="C257" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D257" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E257">
         <v>0</v>
+      </c>
+      <c r="F257" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>6</v>
-      </c>
-      <c r="B258" t="str">
-        <v>U.N</v>
+        <v>5</v>
       </c>
       <c r="C258" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D258" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E258">
         <v>0</v>
+      </c>
+      <c r="F258" t="str">
+        <v>6"</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>11</v>
-      </c>
-      <c r="B259" t="str">
-        <v>U.N</v>
+        <v>1</v>
       </c>
       <c r="C259" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D259" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E259">
         <v>0</v>
+      </c>
+      <c r="F259" t="str">
+        <v>8"</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>35</v>
-      </c>
-      <c r="B260" t="str">
-        <v>U.N</v>
+        <v>216</v>
       </c>
       <c r="C260" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D260" t="str">
+        <v>SOCKETWELD  SCH 160</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" t="str">
         <v>1/2"</v>
-      </c>
-      <c r="D260" t="str">
-        <v>TAPWELD 3000#</v>
-      </c>
-      <c r="E260">
-        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>7</v>
-      </c>
-      <c r="B261" t="str">
-        <v>U.N</v>
+        <v>287</v>
       </c>
       <c r="C261" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D261" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E261">
         <v>0</v>
+      </c>
+      <c r="F261" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>3</v>
-      </c>
-      <c r="B262" t="str">
-        <v>U.N</v>
+        <v>215</v>
       </c>
       <c r="C262" t="str">
-        <v>3"</v>
+        <v>U.N</v>
       </c>
       <c r="D262" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E262">
         <v>0</v>
+      </c>
+      <c r="F262" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>11</v>
-      </c>
-      <c r="B263" t="str">
-        <v>U.N</v>
+        <v>162</v>
       </c>
       <c r="C263" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D263" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E263">
         <v>0</v>
+      </c>
+      <c r="F263" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1</v>
-      </c>
-      <c r="B264" t="str">
-        <v>U.N</v>
+        <v>2</v>
       </c>
       <c r="C264" t="str">
-        <v>4"</v>
+        <v>U.N</v>
       </c>
       <c r="D264" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>SOCKETWELD  SCH 80</v>
       </c>
       <c r="E264">
         <v>0</v>
+      </c>
+      <c r="F264" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>2</v>
-      </c>
-      <c r="B265" t="str">
-        <v>U.N</v>
+        <v>6</v>
       </c>
       <c r="C265" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D265" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>SOCKETWELD  SCH 80</v>
       </c>
       <c r="E265">
         <v>0</v>
+      </c>
+      <c r="F265" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B266" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C266" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D266" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>TAPWELD 3000#</v>
       </c>
       <c r="E266">
         <v>0</v>
+      </c>
+      <c r="F266" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B267" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C267" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D267" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>TAPWELD 3000#</v>
       </c>
       <c r="E267">
         <v>0</v>
+      </c>
+      <c r="F267" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B268" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C268" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D268" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>TAPWELD 3000#</v>
       </c>
       <c r="E268">
         <v>0</v>
+      </c>
+      <c r="F268" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="B269" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C269" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D269" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>TAPWELD 3000#</v>
       </c>
       <c r="E269">
         <v>0</v>
+      </c>
+      <c r="F269" t="str">
+        <v>2"</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B270" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C270" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D270" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>TAPWELD 3000#</v>
       </c>
       <c r="E270">
         <v>0</v>
+      </c>
+      <c r="F270" t="str">
+        <v>3"</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B271" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C271" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D271" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>TAPWELD 3000#</v>
       </c>
       <c r="E271">
         <v>0</v>
+      </c>
+      <c r="F271" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B272" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C272" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D272" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>TAPWELD 3000#</v>
       </c>
       <c r="E272">
         <v>0</v>
+      </c>
+      <c r="F272" t="str">
+        <v>4"</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B273" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C273" t="str">
-        <v>2"</v>
+        <v>U.N</v>
       </c>
       <c r="D273" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>TAPWELD 6000#</v>
       </c>
       <c r="E273">
         <v>0</v>
+      </c>
+      <c r="F273" t="str">
+        <v>1 1/2"</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="B274" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C274" t="str">
-        <v>1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D274" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>TAPWELD 6000#</v>
       </c>
       <c r="E274">
         <v>0</v>
+      </c>
+      <c r="F274" t="str">
+        <v>1"</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B275" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C275" t="str">
-        <v>3/4"</v>
+        <v>U.N</v>
       </c>
       <c r="D275" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>TAPWELD 6000#</v>
       </c>
       <c r="E275">
         <v>0</v>
+      </c>
+      <c r="F275" t="str">
+        <v>1/2"</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B276" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C276" t="str">
-        <v>1"</v>
+        <v>U.N</v>
       </c>
       <c r="D276" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>TAPWELD 6000#</v>
       </c>
       <c r="E276">
         <v>0</v>
+      </c>
+      <c r="F276" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B277" t="str">
-        <v>U.N</v>
+        <v>-</v>
       </c>
       <c r="C277" t="str">
-        <v>1 1/2"</v>
+        <v>U.N</v>
       </c>
       <c r="D277" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>TAPWELD 9000#</v>
       </c>
       <c r="E277">
         <v>0</v>
+      </c>
+      <c r="F277" t="str">
+        <v>3/4"</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
+        <v>119</v>
+      </c>
+      <c r="C278" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D278" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" t="str">
+        <v>1/2"</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>43</v>
+      </c>
+      <c r="C279" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D279" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" t="str">
+        <v>3/4"</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>28</v>
+      </c>
+      <c r="C280" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D280" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280" t="str">
+        <v>1"</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>20</v>
+      </c>
+      <c r="C281" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D281" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" t="str">
+        <v>1 1/2"</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>6</v>
+      </c>
+      <c r="C282" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D282" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282" t="str">
+        <v>2"</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>181</v>
+      </c>
+      <c r="C283" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D283" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" t="str">
+        <v>1/2"</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>11</v>
+      </c>
+      <c r="C284" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D284" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284" t="str">
+        <v>3/4"</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>40</v>
+      </c>
+      <c r="C285" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D285" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" t="str">
+        <v>1"</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
         <v>3</v>
       </c>
-      <c r="B278" t="str">
-        <v>U.N</v>
-      </c>
-      <c r="C278" t="str">
+      <c r="C286" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D286" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286" t="str">
         <v>2"</v>
       </c>
-      <c r="D278" t="str">
-        <v>THREAD  SCH 80</v>
-      </c>
-      <c r="E278">
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>243.14000000000001</v>
+      </c>
+      <c r="B287" t="str">
+        <v>-</v>
+      </c>
+      <c r="C287" t="str">
+        <v>M.L</v>
+      </c>
+      <c r="D287" t="str">
+        <v>PERFIL HEA-120</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" t="str">
+        <v>HEA-120</v>
+      </c>
+      <c r="G287">
+        <v>NaN</v>
+      </c>
+      <c r="H287" t="str">
+        <v>NEW</v>
+      </c>
+      <c r="I287" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J287" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="K287" t="str">
+        <v>Member HEA-120 x 5260.39</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>150.9</v>
+      </c>
+      <c r="B288" t="str">
+        <v>-</v>
+      </c>
+      <c r="C288" t="str">
+        <v>M.L</v>
+      </c>
+      <c r="D288" t="str">
+        <v>PERFIL IPE-200</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" t="str">
+        <v>IPE-200</v>
+      </c>
+      <c r="G288">
+        <v>NaN</v>
+      </c>
+      <c r="H288" t="str">
+        <v>NEW</v>
+      </c>
+      <c r="I288" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J288" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="K288" t="str">
+        <v>Member IPE-200 x 2942.4</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>2.6399999999999997</v>
+      </c>
+      <c r="B289" t="str">
+        <v>-</v>
+      </c>
+      <c r="C289" t="str">
+        <v>M.L</v>
+      </c>
+      <c r="D289" t="str">
+        <v>PERFIL L-75X7</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" t="str">
+        <v>L-75X7</v>
+      </c>
+      <c r="G289">
+        <v>NaN</v>
+      </c>
+      <c r="H289" t="str">
+        <v>NEW</v>
+      </c>
+      <c r="I289" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J289" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="K289" t="str">
+        <v>Member L-75x7 x 300</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>1.26</v>
+      </c>
+      <c r="B290" t="str">
+        <v>-</v>
+      </c>
+      <c r="C290" t="str">
+        <v>M.L</v>
+      </c>
+      <c r="D290" t="str">
+        <v>PERFIL L3X3X1/4</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290" t="str">
+        <v>L3X3X1/4</v>
+      </c>
+      <c r="G290">
+        <v>NaN</v>
+      </c>
+      <c r="H290" t="str">
+        <v>NEW</v>
+      </c>
+      <c r="I290" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J290" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="K290" t="str">
+        <v>Member L3x3x1/4 x 206.662</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>11</v>
+      </c>
+      <c r="B291" t="str">
+        <v>-</v>
+      </c>
+      <c r="C291" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D291" t="str">
+        <v>PLATE 1100</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" t="str">
+        <v>1100</v>
+      </c>
+      <c r="G291">
+        <v>NaN</v>
+      </c>
+      <c r="H291" t="str">
+        <v>NEW</v>
+      </c>
+      <c r="I291" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J291" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="K291" t="str">
+        <v>1100</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>123</v>
+      </c>
+      <c r="B292" t="str">
+        <v>-</v>
+      </c>
+      <c r="C292" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D292" t="str">
+        <v>PLATE 250X250X10</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292" t="str">
+        <v>250X250X10</v>
+      </c>
+      <c r="G292">
+        <v>NaN</v>
+      </c>
+      <c r="H292" t="str">
+        <v>NEW</v>
+      </c>
+      <c r="I292" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J292" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="K292" t="str">
+        <v>250x250x10</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>123</v>
+      </c>
+      <c r="B293" t="str">
+        <v>-</v>
+      </c>
+      <c r="C293" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="D293" t="str">
+        <v>PLATE 350X350X50</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" t="str">
+        <v>350X350X50</v>
+      </c>
+      <c r="G293">
+        <v>NaN</v>
+      </c>
+      <c r="H293" t="str">
+        <v>NEW</v>
+      </c>
+      <c r="I293" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J293" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="K293" t="str">
+        <v>350x350x50</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E278"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N293"/>
   </ignoredErrors>
 </worksheet>
 </file>